--- a/Customized Program Main Dataframe Structure.xlsx
+++ b/Customized Program Main Dataframe Structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19250\Documents\GitHub\LoL-DIY-Programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6580DED2-5463-4C89-84AA-767820ADBE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457E98B0-3A55-4840-8E69-C7CA3AC6EAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="9" xr2:uid="{B2D932DB-2183-440F-AF66-43F3E8354BB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="6" xr2:uid="{B2D932DB-2183-440F-AF66-43F3E8354BB0}"/>
   </bookViews>
   <sheets>
     <sheet name="05 - mastery_header" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="851">
   <si>
     <t>gameCreationDate</t>
   </si>
@@ -2675,6 +2675,74 @@
   </si>
   <si>
     <t>战利品类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailedDescription</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isTeamBuilderManaged</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服从阵营式管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏模式简称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathMatch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>团体竞赛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameModeOverride</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>numPlayersPerTeamOverride</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏类型重写来源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍规模重写历史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>partySizeIpRewards</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组队额外成就奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏模式描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3431,7 +3499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B45046-550B-4F7D-838A-D2B016D38862}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11114,9 +11182,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8672D3B3-4AAA-4AC1-99DA-D800CB3EF628}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11157,7 +11225,7 @@
         <v>149</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11172,7 +11240,7 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11187,7 +11255,7 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11204,7 +11272,7 @@
         <v>149</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11212,16 +11280,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>3</v>
+        <v>834</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>74</v>
+        <v>850</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>149</v>
+        <v>835</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11229,16 +11297,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>224</v>
+        <v>836</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>78</v>
+        <v>837</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>835</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11246,14 +11311,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E8">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11261,14 +11328,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E9">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11276,14 +11345,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11291,33 +11360,26 @@
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>6</v>
+        <v>838</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11325,14 +11387,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11340,16 +11402,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>213</v>
+        <v>6</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11357,16 +11419,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E15">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11374,16 +11436,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11391,16 +11451,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11408,16 +11468,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11425,14 +11485,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>208</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E19">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11440,14 +11502,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>206</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E20">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11455,16 +11519,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E21">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11472,14 +11536,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11487,41 +11551,45 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="13">
         <v>22</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="7"/>
+      <c r="B24" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>23</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>194</v>
+        <v>840</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25">
-        <v>37</v>
+        <v>841</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11529,76 +11597,71 @@
         <v>24</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="13">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>171</v>
+      <c r="B27" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>188</v>
+      <c r="B28" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" t="s">
+        <v>195</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28">
-        <v>40</v>
-      </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="13">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>186</v>
+      <c r="B29" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="13">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>149</v>
-      </c>
+      <c r="B30" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="7"/>
       <c r="E30">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11606,14 +11669,14 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11621,14 +11684,14 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11636,14 +11699,14 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11651,14 +11714,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="7"/>
+        <v>236</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E34">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11666,31 +11731,29 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>174</v>
+      <c r="B36" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D36" s="7"/>
       <c r="E36">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11698,31 +11761,26 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>172</v>
+        <v>842</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>171</v>
+        <v>843</v>
       </c>
       <c r="D37" s="7"/>
-      <c r="E37">
-        <v>39</v>
-      </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D38" s="7"/>
       <c r="E38">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11730,33 +11788,29 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D39" s="7"/>
       <c r="E39">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>167</v>
+      <c r="B40" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11764,29 +11818,28 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>165</v>
+        <v>844</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>164</v>
+        <v>846</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41">
-        <v>42</v>
-      </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>163</v>
+      <c r="B42" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E42">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11794,16 +11847,14 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11811,14 +11862,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" s="7"/>
+        <v>237</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E44">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11826,64 +11879,186 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D45" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E45">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="7"/>
+      <c r="B46" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E46">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>153</v>
+      <c r="B47" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>847</v>
       </c>
       <c r="D47" s="7"/>
-      <c r="E47">
-        <v>44</v>
-      </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>151</v>
+      <c r="B48" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
+        <v>51</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="15">
+        <v>52</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54">
         <v>45</v>
       </c>
     </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="15">
+        <v>53</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
+        <v>54</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>848</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E48">
-    <sortCondition ref="A1:A48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E55">
+    <sortCondition ref="A1:A55"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11895,9 +12070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E653D2-5962-4B6A-AE49-EF482E17CB95}">
   <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14044,6 +14217,9 @@
         <v>325</v>
       </c>
       <c r="D138" s="7"/>
+      <c r="E138">
+        <v>103</v>
+      </c>
     </row>
     <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="8">

--- a/Customized Program Main Dataframe Structure.xlsx
+++ b/Customized Program Main Dataframe Structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19250\Documents\GitHub\LoL-DIY-Programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457E98B0-3A55-4840-8E69-C7CA3AC6EAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C2F240-12F5-4EBB-968A-E1FA87DB7EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="6" xr2:uid="{B2D932DB-2183-440F-AF66-43F3E8354BB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{B2D932DB-2183-440F-AF66-43F3E8354BB0}"/>
   </bookViews>
   <sheets>
     <sheet name="05 - mastery_header" sheetId="3" r:id="rId1"/>
@@ -888,13 +888,7 @@
     <t>previousSeasonEndDivision</t>
   </si>
   <si>
-    <t>过往赛季取得赛段</t>
-  </si>
-  <si>
     <t>previousSeasonAchievedTier</t>
-  </si>
-  <si>
-    <t>过往赛季取得赛段分级</t>
   </si>
   <si>
     <t>previousSeasonAchievedDivision</t>
@@ -2744,6 +2738,12 @@
   <si>
     <t>游戏模式描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过往赛季最高赛段分级</t>
+  </si>
+  <si>
+    <t>过往赛季最高赛段</t>
   </si>
 </sst>
 </file>
@@ -3318,7 +3318,7 @@
         <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E1" t="s">
         <v>150</v>
@@ -3520,7 +3520,7 @@
         <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E1" t="s">
         <v>150</v>
@@ -3531,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D2" t="s">
         <v>149</v>
@@ -3548,10 +3548,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D3" t="s">
         <v>149</v>
@@ -3565,10 +3565,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -3579,10 +3579,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D5" t="s">
         <v>149</v>
@@ -3593,10 +3593,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D6" t="s">
         <v>149</v>
@@ -3610,10 +3610,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C7" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E7">
         <v>12</v>
@@ -3624,10 +3624,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C8" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D8" t="s">
         <v>149</v>
@@ -3638,10 +3638,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C9" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D9" t="s">
         <v>149</v>
@@ -3652,10 +3652,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C10" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D10" t="s">
         <v>149</v>
@@ -3666,10 +3666,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D11" t="s">
         <v>149</v>
@@ -3683,10 +3683,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C12" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E12">
         <v>16</v>
@@ -3697,10 +3697,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C13" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D13" t="s">
         <v>149</v>
@@ -3711,10 +3711,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C14" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D14" t="s">
         <v>149</v>
@@ -3728,10 +3728,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C15" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D15" t="s">
         <v>149</v>
@@ -3742,10 +3742,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C16" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D16" t="s">
         <v>149</v>
@@ -3756,10 +3756,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C17" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D17" t="s">
         <v>149</v>
@@ -3773,10 +3773,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C18" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D18" t="s">
         <v>149</v>
@@ -3787,10 +3787,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C19" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E19">
         <v>15</v>
@@ -3801,10 +3801,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C20" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D20" t="s">
         <v>149</v>
@@ -3815,10 +3815,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C21" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -3829,10 +3829,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C22" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E22">
         <v>14</v>
@@ -3843,10 +3843,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C23" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D23" t="s">
         <v>149</v>
@@ -3857,10 +3857,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C24" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D24" t="s">
         <v>149</v>
@@ -3871,10 +3871,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C25" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D25" t="s">
         <v>149</v>
@@ -3885,10 +3885,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C26" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D26" t="s">
         <v>149</v>
@@ -3899,10 +3899,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C27" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D27" t="s">
         <v>149</v>
@@ -3913,10 +3913,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C28" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D28" t="s">
         <v>149</v>
@@ -3927,10 +3927,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C29" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D29" t="s">
         <v>149</v>
@@ -3944,10 +3944,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D30" t="s">
         <v>149</v>
@@ -3961,7 +3961,7 @@
         <v>192</v>
       </c>
       <c r="C31" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E31">
         <v>13</v>
@@ -3972,10 +3972,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C32" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -3986,10 +3986,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C33" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D33" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C34" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D34" t="s">
         <v>149</v>
@@ -4020,10 +4020,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C35" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D35" t="s">
         <v>149</v>
@@ -4042,7 +4042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D295003-94F1-4092-B083-F421347C65B6}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4062,7 +4062,7 @@
         <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E1" t="s">
         <v>150</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>149</v>
@@ -4090,10 +4090,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3">
@@ -4105,10 +4105,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>149</v>
@@ -4122,10 +4122,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>149</v>
@@ -4139,10 +4139,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>149</v>
@@ -4156,10 +4156,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>276</v>
+        <v>849</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>149</v>
@@ -4173,10 +4173,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>850</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8">
@@ -4373,7 +4373,7 @@
         <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E1" t="s">
         <v>150</v>
@@ -4384,10 +4384,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>149</v>
@@ -4401,10 +4401,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>149</v>
@@ -4418,10 +4418,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>149</v>
@@ -4435,10 +4435,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>149</v>
@@ -4449,10 +4449,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>149</v>
@@ -4500,7 +4500,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9">
@@ -4527,7 +4527,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>84</v>
@@ -4542,7 +4542,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>85</v>
@@ -4557,10 +4557,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13">
@@ -4572,10 +4572,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>149</v>
@@ -4689,10 +4689,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>149</v>
@@ -4768,10 +4768,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26">
@@ -4783,10 +4783,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27">
@@ -4828,10 +4828,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30">
@@ -4843,10 +4843,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31">
@@ -5031,10 +5031,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>149</v>
@@ -5116,7 +5116,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>114</v>
@@ -5133,7 +5133,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>115</v>
@@ -5201,10 +5201,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>149</v>
@@ -5218,10 +5218,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>149</v>
@@ -5249,10 +5249,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>667</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56">
@@ -5264,10 +5264,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57">
@@ -5279,10 +5279,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>668</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>149</v>
@@ -5293,10 +5293,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>149</v>
@@ -5307,10 +5307,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>149</v>
@@ -5321,10 +5321,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61">
@@ -5336,10 +5336,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62">
@@ -5351,10 +5351,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>149</v>
@@ -5365,10 +5365,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>149</v>
@@ -5379,10 +5379,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>149</v>
@@ -5393,10 +5393,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66">
@@ -5408,10 +5408,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67">
@@ -5423,10 +5423,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>149</v>
@@ -5437,10 +5437,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>149</v>
@@ -5451,10 +5451,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>149</v>
@@ -5465,10 +5465,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71">
@@ -5480,10 +5480,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72">
@@ -5495,10 +5495,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>149</v>
@@ -5509,10 +5509,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>149</v>
@@ -5523,10 +5523,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>149</v>
@@ -5537,10 +5537,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76">
@@ -5552,10 +5552,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77">
@@ -5567,10 +5567,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>149</v>
@@ -5581,10 +5581,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>149</v>
@@ -5595,10 +5595,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>149</v>
@@ -5609,10 +5609,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81">
@@ -5624,10 +5624,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82">
@@ -5639,10 +5639,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>149</v>
@@ -5653,10 +5653,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>149</v>
@@ -5667,10 +5667,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>149</v>
@@ -5681,10 +5681,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86">
@@ -5696,10 +5696,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87">
@@ -5762,10 +5762,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91">
@@ -5777,10 +5777,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92">
@@ -5792,10 +5792,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93">
@@ -5807,10 +5807,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94">
@@ -5822,10 +5822,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95">
@@ -5837,10 +5837,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96">
@@ -5852,10 +5852,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97">
@@ -5867,10 +5867,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98">
@@ -5882,10 +5882,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>149</v>
@@ -5896,10 +5896,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>149</v>
@@ -5910,10 +5910,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>149</v>
@@ -5924,10 +5924,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>149</v>
@@ -5938,10 +5938,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>149</v>
@@ -5952,10 +5952,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>149</v>
@@ -5966,10 +5966,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>149</v>
@@ -5980,10 +5980,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>149</v>
@@ -5994,10 +5994,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>149</v>
@@ -6008,10 +6008,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>149</v>
@@ -6022,10 +6022,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109">
@@ -6054,7 +6054,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>124</v>
@@ -6074,7 +6074,7 @@
         <v>51</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>149</v>
@@ -6088,10 +6088,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113">
@@ -6324,10 +6324,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>149</v>
@@ -6443,10 +6443,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134">
@@ -6458,10 +6458,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135">
@@ -6473,7 +6473,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C136" s="23" t="s">
         <v>239</v>
@@ -6514,7 +6514,7 @@
         <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E1" t="s">
         <v>150</v>
@@ -6525,10 +6525,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>149</v>
@@ -6542,10 +6542,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>149</v>
@@ -6559,10 +6559,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4">
@@ -6574,10 +6574,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5">
@@ -6589,10 +6589,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6">
@@ -6622,7 +6622,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8">
@@ -6649,10 +6649,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>149</v>
@@ -6666,10 +6666,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>149</v>
@@ -6683,10 +6683,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>149</v>
@@ -6700,7 +6700,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>88</v>
@@ -6717,10 +6717,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>149</v>
@@ -6734,10 +6734,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15">
@@ -6749,10 +6749,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>149</v>
@@ -6766,7 +6766,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>99</v>
@@ -6783,10 +6783,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>149</v>
@@ -6826,7 +6826,7 @@
         <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E1" t="s">
         <v>150</v>
@@ -6837,10 +6837,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6851,7 +6851,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>71</v>
@@ -6868,7 +6868,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>73</v>
@@ -6885,7 +6885,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>72</v>
@@ -6899,7 +6899,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>76</v>
@@ -6913,10 +6913,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D7" t="s">
         <v>149</v>
@@ -6930,10 +6930,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -6944,10 +6944,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D9" t="s">
         <v>149</v>
@@ -6958,10 +6958,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D10" t="s">
         <v>149</v>
@@ -6975,10 +6975,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -6986,10 +6986,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E12">
         <v>18</v>
@@ -7000,10 +7000,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E13">
         <v>19</v>
@@ -7014,10 +7014,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E14">
         <v>20</v>
@@ -7028,10 +7028,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E15">
         <v>8</v>
@@ -7042,10 +7042,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E16">
         <v>9</v>
@@ -7056,10 +7056,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -7070,10 +7070,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D18" t="s">
         <v>149</v>
@@ -7087,10 +7087,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E19">
         <v>12</v>
@@ -7101,10 +7101,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D20" t="s">
         <v>149</v>
@@ -7118,10 +7118,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D21" t="s">
         <v>149</v>
@@ -7135,10 +7135,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D22" t="s">
         <v>149</v>
@@ -7166,10 +7166,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -7177,10 +7177,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="25" t="s">
+        <v>754</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>756</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -7188,10 +7188,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E26">
         <v>13</v>
@@ -7202,10 +7202,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D27" t="s">
         <v>149</v>
@@ -7219,10 +7219,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E28">
         <v>87</v>
@@ -7233,10 +7233,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E29">
         <v>88</v>
@@ -7247,10 +7247,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E30">
         <v>89</v>
@@ -7261,10 +7261,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E31">
         <v>90</v>
@@ -7275,10 +7275,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E32">
         <v>91</v>
@@ -7289,10 +7289,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E33">
         <v>92</v>
@@ -7303,10 +7303,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E34">
         <v>93</v>
@@ -7317,10 +7317,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E35">
         <v>94</v>
@@ -7331,10 +7331,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E36">
         <v>95</v>
@@ -7345,10 +7345,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E37">
         <v>96</v>
@@ -7359,10 +7359,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E38">
         <v>97</v>
@@ -7373,10 +7373,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E39">
         <v>98</v>
@@ -7387,10 +7387,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E40">
         <v>99</v>
@@ -7401,10 +7401,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -7415,10 +7415,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E42">
         <v>101</v>
@@ -7429,10 +7429,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E43">
         <v>102</v>
@@ -7443,10 +7443,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E44">
         <v>103</v>
@@ -7457,10 +7457,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E45">
         <v>104</v>
@@ -7471,10 +7471,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E46">
         <v>105</v>
@@ -7485,10 +7485,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E47">
         <v>106</v>
@@ -7499,10 +7499,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E48">
         <v>107</v>
@@ -7513,10 +7513,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E49">
         <v>108</v>
@@ -7527,10 +7527,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E50">
         <v>109</v>
@@ -7541,10 +7541,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E51">
         <v>110</v>
@@ -7555,10 +7555,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E52">
         <v>111</v>
@@ -7569,10 +7569,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E53">
         <v>112</v>
@@ -7583,10 +7583,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E54">
         <v>113</v>
@@ -7597,10 +7597,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E55">
         <v>114</v>
@@ -7611,10 +7611,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E56">
         <v>115</v>
@@ -7625,10 +7625,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E57">
         <v>116</v>
@@ -7639,10 +7639,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E58">
         <v>117</v>
@@ -7653,10 +7653,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E59">
         <v>118</v>
@@ -7667,10 +7667,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E60">
         <v>119</v>
@@ -7681,10 +7681,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E61">
         <v>120</v>
@@ -7695,10 +7695,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E62">
         <v>121</v>
@@ -7709,10 +7709,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E63">
         <v>122</v>
@@ -7723,10 +7723,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E64">
         <v>123</v>
@@ -7737,10 +7737,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E65">
         <v>124</v>
@@ -7751,10 +7751,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E66">
         <v>125</v>
@@ -7765,10 +7765,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E67">
         <v>126</v>
@@ -7779,10 +7779,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E68">
         <v>127</v>
@@ -7793,10 +7793,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E69">
         <v>128</v>
@@ -7807,10 +7807,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E70">
         <v>129</v>
@@ -7821,10 +7821,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E71">
         <v>130</v>
@@ -7835,10 +7835,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E72">
         <v>131</v>
@@ -7849,10 +7849,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E73">
         <v>132</v>
@@ -7863,10 +7863,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E74">
         <v>133</v>
@@ -7877,10 +7877,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E75">
         <v>134</v>
@@ -7891,10 +7891,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E76">
         <v>135</v>
@@ -7905,10 +7905,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E77">
         <v>136</v>
@@ -7919,10 +7919,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E78">
         <v>137</v>
@@ -7933,10 +7933,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E79">
         <v>138</v>
@@ -7947,10 +7947,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E80">
         <v>139</v>
@@ -7961,10 +7961,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E81">
         <v>140</v>
@@ -7975,10 +7975,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E82">
         <v>141</v>
@@ -7989,10 +7989,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E83">
         <v>142</v>
@@ -8003,10 +8003,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E84">
         <v>143</v>
@@ -8017,10 +8017,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E85">
         <v>144</v>
@@ -8031,10 +8031,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E86">
         <v>145</v>
@@ -8045,10 +8045,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E87">
         <v>146</v>
@@ -8059,10 +8059,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E88">
         <v>147</v>
@@ -8073,10 +8073,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E89">
         <v>148</v>
@@ -8087,10 +8087,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E90">
         <v>149</v>
@@ -8101,10 +8101,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E91">
         <v>150</v>
@@ -8115,10 +8115,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E92">
         <v>151</v>
@@ -8129,10 +8129,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E93">
         <v>21</v>
@@ -8143,10 +8143,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E94">
         <v>22</v>
@@ -8157,10 +8157,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E95">
         <v>23</v>
@@ -8171,10 +8171,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E96">
         <v>27</v>
@@ -8185,10 +8185,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E97">
         <v>28</v>
@@ -8199,10 +8199,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E98">
         <v>29</v>
@@ -8213,10 +8213,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E99">
         <v>33</v>
@@ -8227,10 +8227,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E100">
         <v>34</v>
@@ -8241,10 +8241,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E101">
         <v>35</v>
@@ -8255,10 +8255,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E102">
         <v>39</v>
@@ -8269,10 +8269,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E103">
         <v>40</v>
@@ -8283,10 +8283,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E104">
         <v>41</v>
@@ -8297,10 +8297,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E105">
         <v>45</v>
@@ -8311,10 +8311,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E106">
         <v>46</v>
@@ -8325,10 +8325,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E107">
         <v>47</v>
@@ -8339,10 +8339,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E108">
         <v>51</v>
@@ -8353,10 +8353,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E109">
         <v>52</v>
@@ -8367,10 +8367,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E110">
         <v>53</v>
@@ -8381,10 +8381,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E111">
         <v>57</v>
@@ -8395,10 +8395,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E112">
         <v>58</v>
@@ -8409,10 +8409,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E113">
         <v>59</v>
@@ -8423,10 +8423,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E114">
         <v>63</v>
@@ -8437,10 +8437,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E115">
         <v>64</v>
@@ -8451,10 +8451,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E116">
         <v>65</v>
@@ -8465,10 +8465,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E117">
         <v>69</v>
@@ -8479,10 +8479,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E118">
         <v>70</v>
@@ -8493,10 +8493,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E119">
         <v>71</v>
@@ -8507,10 +8507,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E120">
         <v>75</v>
@@ -8521,10 +8521,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E121">
         <v>76</v>
@@ -8535,10 +8535,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E122">
         <v>77</v>
@@ -8549,10 +8549,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E123">
         <v>81</v>
@@ -8563,10 +8563,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E124">
         <v>82</v>
@@ -8577,10 +8577,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E125">
         <v>83</v>
@@ -8591,10 +8591,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E126">
         <v>24</v>
@@ -8605,10 +8605,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C127" s="30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E127">
         <v>25</v>
@@ -8619,10 +8619,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E128">
         <v>26</v>
@@ -8633,10 +8633,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E129">
         <v>30</v>
@@ -8647,10 +8647,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E130">
         <v>31</v>
@@ -8661,10 +8661,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E131">
         <v>32</v>
@@ -8675,10 +8675,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E132">
         <v>36</v>
@@ -8689,10 +8689,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E133">
         <v>37</v>
@@ -8703,10 +8703,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C134" s="30" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E134">
         <v>38</v>
@@ -8717,10 +8717,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E135">
         <v>42</v>
@@ -8731,10 +8731,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C136" s="30" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E136">
         <v>43</v>
@@ -8745,10 +8745,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E137">
         <v>44</v>
@@ -8759,10 +8759,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C138" s="30" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E138">
         <v>48</v>
@@ -8773,10 +8773,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C139" s="30" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E139">
         <v>49</v>
@@ -8787,10 +8787,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E140">
         <v>50</v>
@@ -8801,10 +8801,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E141">
         <v>54</v>
@@ -8815,10 +8815,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E142">
         <v>55</v>
@@ -8829,10 +8829,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E143">
         <v>56</v>
@@ -8843,10 +8843,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C144" s="30" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E144">
         <v>60</v>
@@ -8857,10 +8857,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E145">
         <v>61</v>
@@ -8871,10 +8871,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E146">
         <v>62</v>
@@ -8885,10 +8885,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C147" s="30" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E147">
         <v>66</v>
@@ -8899,10 +8899,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E148">
         <v>67</v>
@@ -8913,10 +8913,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E149">
         <v>68</v>
@@ -8927,10 +8927,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C150" s="30" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E150">
         <v>72</v>
@@ -8941,10 +8941,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E151">
         <v>73</v>
@@ -8955,10 +8955,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E152">
         <v>74</v>
@@ -8969,10 +8969,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E153">
         <v>78</v>
@@ -8983,10 +8983,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E154">
         <v>79</v>
@@ -8997,10 +8997,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E155">
         <v>80</v>
@@ -9011,10 +9011,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E156">
         <v>84</v>
@@ -9025,10 +9025,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E157">
         <v>85</v>
@@ -9039,10 +9039,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E158">
         <v>86</v>
@@ -9080,7 +9080,7 @@
         <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E1" t="s">
         <v>150</v>
@@ -9091,10 +9091,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -9105,10 +9105,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E3">
         <v>13</v>
@@ -9119,10 +9119,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E4">
         <v>14</v>
@@ -9133,10 +9133,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -9147,10 +9147,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -9161,10 +9161,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -9175,10 +9175,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -9189,10 +9189,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D9" t="s">
         <v>149</v>
@@ -9206,10 +9206,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -9220,10 +9220,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D11" t="s">
         <v>149</v>
@@ -9237,10 +9237,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D12" t="s">
         <v>149</v>
@@ -9254,10 +9254,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D13" t="s">
         <v>149</v>
@@ -9285,10 +9285,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -9299,10 +9299,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>754</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>756</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>758</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -9313,10 +9313,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -9327,10 +9327,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D18" t="s">
         <v>149</v>
@@ -9344,10 +9344,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E19">
         <v>82</v>
@@ -9358,10 +9358,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E20">
         <v>83</v>
@@ -9372,10 +9372,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E21">
         <v>84</v>
@@ -9386,10 +9386,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E22">
         <v>85</v>
@@ -9400,10 +9400,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E23">
         <v>86</v>
@@ -9414,10 +9414,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E24">
         <v>87</v>
@@ -9428,10 +9428,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E25">
         <v>88</v>
@@ -9442,10 +9442,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E26">
         <v>89</v>
@@ -9456,10 +9456,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E27">
         <v>90</v>
@@ -9470,10 +9470,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E28">
         <v>91</v>
@@ -9484,10 +9484,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E29">
         <v>92</v>
@@ -9498,10 +9498,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E30">
         <v>93</v>
@@ -9512,10 +9512,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E31">
         <v>94</v>
@@ -9526,10 +9526,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E32">
         <v>95</v>
@@ -9540,10 +9540,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E33">
         <v>96</v>
@@ -9554,10 +9554,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E34">
         <v>97</v>
@@ -9568,10 +9568,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E35">
         <v>98</v>
@@ -9582,10 +9582,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E36">
         <v>99</v>
@@ -9596,10 +9596,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -9610,10 +9610,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E38">
         <v>101</v>
@@ -9624,10 +9624,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E39">
         <v>102</v>
@@ -9638,10 +9638,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E40">
         <v>103</v>
@@ -9652,10 +9652,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E41">
         <v>104</v>
@@ -9666,10 +9666,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E42">
         <v>105</v>
@@ -9680,10 +9680,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E43">
         <v>106</v>
@@ -9694,10 +9694,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E44">
         <v>107</v>
@@ -9708,10 +9708,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E45">
         <v>108</v>
@@ -9722,10 +9722,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E46">
         <v>109</v>
@@ -9736,10 +9736,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E47">
         <v>110</v>
@@ -9750,10 +9750,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E48">
         <v>111</v>
@@ -9764,10 +9764,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E49">
         <v>112</v>
@@ -9778,10 +9778,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E50">
         <v>113</v>
@@ -9792,10 +9792,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E51">
         <v>114</v>
@@ -9806,10 +9806,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E52">
         <v>115</v>
@@ -9820,10 +9820,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E53">
         <v>116</v>
@@ -9834,10 +9834,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E54">
         <v>117</v>
@@ -9848,10 +9848,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E55">
         <v>118</v>
@@ -9862,10 +9862,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E56">
         <v>119</v>
@@ -9876,10 +9876,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E57">
         <v>120</v>
@@ -9890,10 +9890,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E58">
         <v>121</v>
@@ -9904,10 +9904,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E59">
         <v>122</v>
@@ -9918,10 +9918,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E60">
         <v>123</v>
@@ -9932,10 +9932,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E61">
         <v>124</v>
@@ -9946,10 +9946,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E62">
         <v>125</v>
@@ -9960,10 +9960,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E63">
         <v>126</v>
@@ -9974,10 +9974,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E64">
         <v>127</v>
@@ -9988,10 +9988,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E65">
         <v>128</v>
@@ -10002,10 +10002,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E66">
         <v>129</v>
@@ -10016,10 +10016,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E67">
         <v>130</v>
@@ -10030,10 +10030,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E68">
         <v>131</v>
@@ -10044,10 +10044,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E69">
         <v>132</v>
@@ -10058,10 +10058,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E70">
         <v>133</v>
@@ -10072,10 +10072,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E71">
         <v>134</v>
@@ -10086,10 +10086,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E72">
         <v>135</v>
@@ -10100,10 +10100,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E73">
         <v>136</v>
@@ -10114,10 +10114,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E74">
         <v>137</v>
@@ -10128,10 +10128,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E75">
         <v>138</v>
@@ -10142,10 +10142,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E76">
         <v>139</v>
@@ -10156,10 +10156,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E77">
         <v>140</v>
@@ -10170,10 +10170,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E78">
         <v>141</v>
@@ -10184,10 +10184,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E79">
         <v>142</v>
@@ -10198,10 +10198,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E80">
         <v>143</v>
@@ -10212,10 +10212,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E81">
         <v>144</v>
@@ -10226,10 +10226,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E82">
         <v>145</v>
@@ -10240,10 +10240,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E83">
         <v>146</v>
@@ -10254,10 +10254,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E84">
         <v>16</v>
@@ -10268,10 +10268,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E85">
         <v>17</v>
@@ -10282,10 +10282,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E86">
         <v>18</v>
@@ -10296,10 +10296,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E87">
         <v>22</v>
@@ -10310,10 +10310,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E88">
         <v>23</v>
@@ -10324,10 +10324,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E89">
         <v>24</v>
@@ -10338,10 +10338,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E90">
         <v>28</v>
@@ -10352,10 +10352,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E91">
         <v>29</v>
@@ -10366,10 +10366,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E92">
         <v>30</v>
@@ -10380,10 +10380,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E93">
         <v>34</v>
@@ -10394,10 +10394,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E94">
         <v>35</v>
@@ -10408,10 +10408,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E95">
         <v>36</v>
@@ -10422,10 +10422,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E96">
         <v>40</v>
@@ -10436,10 +10436,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E97">
         <v>41</v>
@@ -10450,10 +10450,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E98">
         <v>42</v>
@@ -10464,10 +10464,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E99">
         <v>46</v>
@@ -10478,10 +10478,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E100">
         <v>47</v>
@@ -10492,10 +10492,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E101">
         <v>48</v>
@@ -10506,10 +10506,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E102">
         <v>52</v>
@@ -10520,10 +10520,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E103">
         <v>53</v>
@@ -10534,10 +10534,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E104">
         <v>54</v>
@@ -10548,10 +10548,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E105">
         <v>58</v>
@@ -10562,10 +10562,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E106">
         <v>59</v>
@@ -10576,10 +10576,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E107">
         <v>60</v>
@@ -10590,10 +10590,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E108">
         <v>64</v>
@@ -10604,10 +10604,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E109">
         <v>65</v>
@@ -10618,10 +10618,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E110">
         <v>66</v>
@@ -10632,10 +10632,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E111">
         <v>70</v>
@@ -10646,10 +10646,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E112">
         <v>71</v>
@@ -10660,10 +10660,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E113">
         <v>72</v>
@@ -10674,10 +10674,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E114">
         <v>76</v>
@@ -10688,10 +10688,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E115">
         <v>77</v>
@@ -10702,10 +10702,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E116">
         <v>78</v>
@@ -10716,10 +10716,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E117">
         <v>19</v>
@@ -10730,10 +10730,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E118">
         <v>20</v>
@@ -10744,10 +10744,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E119">
         <v>21</v>
@@ -10758,10 +10758,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E120">
         <v>25</v>
@@ -10772,10 +10772,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E121">
         <v>26</v>
@@ -10786,10 +10786,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E122">
         <v>27</v>
@@ -10800,10 +10800,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E123">
         <v>31</v>
@@ -10814,10 +10814,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E124">
         <v>32</v>
@@ -10828,10 +10828,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E125">
         <v>33</v>
@@ -10842,10 +10842,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E126">
         <v>37</v>
@@ -10856,10 +10856,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C127" s="30" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E127">
         <v>38</v>
@@ -10870,10 +10870,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E128">
         <v>39</v>
@@ -10884,10 +10884,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E129">
         <v>43</v>
@@ -10898,10 +10898,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E130">
         <v>44</v>
@@ -10912,10 +10912,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E131">
         <v>45</v>
@@ -10926,10 +10926,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E132">
         <v>49</v>
@@ -10940,10 +10940,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E133">
         <v>50</v>
@@ -10954,10 +10954,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C134" s="30" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E134">
         <v>51</v>
@@ -10968,10 +10968,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E135">
         <v>55</v>
@@ -10982,10 +10982,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C136" s="30" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E136">
         <v>56</v>
@@ -10996,10 +10996,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E137">
         <v>57</v>
@@ -11010,10 +11010,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C138" s="30" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E138">
         <v>61</v>
@@ -11024,10 +11024,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C139" s="30" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E139">
         <v>62</v>
@@ -11038,10 +11038,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E140">
         <v>63</v>
@@ -11052,10 +11052,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E141">
         <v>67</v>
@@ -11066,10 +11066,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E142">
         <v>68</v>
@@ -11080,10 +11080,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E143">
         <v>69</v>
@@ -11094,10 +11094,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C144" s="30" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E144">
         <v>73</v>
@@ -11108,10 +11108,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E145">
         <v>74</v>
@@ -11122,10 +11122,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E146">
         <v>75</v>
@@ -11136,10 +11136,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C147" s="30" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E147">
         <v>79</v>
@@ -11150,10 +11150,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E148">
         <v>80</v>
@@ -11164,10 +11164,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E149">
         <v>81</v>
@@ -11184,7 +11184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8672D3B3-4AAA-4AC1-99DA-D800CB3EF628}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11205,7 +11205,7 @@
         <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E1" t="s">
         <v>150</v>
@@ -11280,13 +11280,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -11297,13 +11297,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11360,10 +11360,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -11583,13 +11583,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11761,10 +11761,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D37" s="7"/>
     </row>
@@ -11818,10 +11818,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>844</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>846</v>
       </c>
       <c r="D41" s="7"/>
     </row>
@@ -11913,10 +11913,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>845</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>847</v>
       </c>
       <c r="D47" s="7"/>
     </row>
@@ -12047,13 +12047,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -12090,7 +12090,7 @@
         <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E1" t="s">
         <v>150</v>
@@ -12355,10 +12355,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>149</v>
@@ -12469,10 +12469,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>149</v>
@@ -12545,10 +12545,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30">
@@ -12560,10 +12560,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31">
@@ -12605,10 +12605,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34">
@@ -12620,10 +12620,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35">
@@ -12808,10 +12808,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>149</v>
@@ -12890,7 +12890,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>114</v>
@@ -12907,7 +12907,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>115</v>
@@ -12975,10 +12975,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>149</v>
@@ -12992,10 +12992,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>149</v>
@@ -13023,10 +13023,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>667</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60">
@@ -13038,10 +13038,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61">
@@ -13053,10 +13053,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>668</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>149</v>
@@ -13067,10 +13067,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>149</v>
@@ -13081,10 +13081,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>149</v>
@@ -13095,10 +13095,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65">
@@ -13110,10 +13110,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66">
@@ -13125,10 +13125,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>149</v>
@@ -13139,10 +13139,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>149</v>
@@ -13153,10 +13153,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>149</v>
@@ -13167,10 +13167,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70">
@@ -13182,10 +13182,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71">
@@ -13197,10 +13197,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>149</v>
@@ -13211,10 +13211,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>149</v>
@@ -13225,10 +13225,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>149</v>
@@ -13239,10 +13239,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75">
@@ -13254,10 +13254,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76">
@@ -13269,10 +13269,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>149</v>
@@ -13283,10 +13283,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>149</v>
@@ -13297,10 +13297,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>149</v>
@@ -13311,10 +13311,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80">
@@ -13326,10 +13326,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81">
@@ -13341,10 +13341,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>149</v>
@@ -13355,10 +13355,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>149</v>
@@ -13369,10 +13369,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>149</v>
@@ -13383,10 +13383,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85">
@@ -13398,10 +13398,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86">
@@ -13413,10 +13413,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>149</v>
@@ -13427,10 +13427,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>149</v>
@@ -13441,10 +13441,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>149</v>
@@ -13455,10 +13455,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90">
@@ -13470,10 +13470,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91">
@@ -13536,10 +13536,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95">
@@ -13551,10 +13551,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96">
@@ -13566,10 +13566,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97">
@@ -13581,10 +13581,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98">
@@ -13596,10 +13596,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99">
@@ -13611,10 +13611,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100">
@@ -13626,10 +13626,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101">
@@ -13641,10 +13641,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102">
@@ -13656,10 +13656,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>149</v>
@@ -13670,10 +13670,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>149</v>
@@ -13684,10 +13684,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>149</v>
@@ -13698,10 +13698,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>149</v>
@@ -13712,10 +13712,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>149</v>
@@ -13726,10 +13726,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>149</v>
@@ -13740,10 +13740,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>149</v>
@@ -13754,10 +13754,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>149</v>
@@ -13768,10 +13768,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>149</v>
@@ -13782,10 +13782,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>149</v>
@@ -13796,10 +13796,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D113" s="7"/>
     </row>
@@ -13825,7 +13825,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>124</v>
@@ -13845,7 +13845,7 @@
         <v>51</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>149</v>
@@ -13856,10 +13856,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117">
@@ -14092,10 +14092,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>149</v>
@@ -14211,10 +14211,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138">
@@ -14267,7 +14267,7 @@
         <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E1" t="s">
         <v>150</v>
@@ -14278,10 +14278,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -14289,7 +14289,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>71</v>
@@ -14306,7 +14306,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>73</v>
@@ -14323,7 +14323,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>72</v>
@@ -14337,7 +14337,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>76</v>
@@ -14351,10 +14351,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D7" t="s">
         <v>149</v>
@@ -14368,10 +14368,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -14382,10 +14382,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D9" t="s">
         <v>149</v>
@@ -14396,10 +14396,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D10" t="s">
         <v>149</v>
@@ -14410,10 +14410,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -14421,10 +14421,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E12">
         <v>19</v>
@@ -14435,10 +14435,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -14449,10 +14449,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E14">
         <v>21</v>
@@ -14463,10 +14463,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -14477,10 +14477,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -14491,10 +14491,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -14505,10 +14505,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D18" t="s">
         <v>149</v>
@@ -14522,10 +14522,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E19">
         <v>13</v>
@@ -14536,10 +14536,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D20" t="s">
         <v>149</v>
@@ -14553,10 +14553,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D21" t="s">
         <v>149</v>
@@ -14570,10 +14570,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D22" t="s">
         <v>149</v>
@@ -14604,10 +14604,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -14618,10 +14618,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="25" t="s">
+        <v>754</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>756</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>758</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -14632,10 +14632,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E26">
         <v>14</v>
@@ -14646,10 +14646,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D27" t="s">
         <v>149</v>
@@ -14663,10 +14663,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E28">
         <v>88</v>
@@ -14677,10 +14677,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E29">
         <v>89</v>
@@ -14691,10 +14691,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E30">
         <v>90</v>
@@ -14705,10 +14705,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E31">
         <v>91</v>
@@ -14719,10 +14719,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E32">
         <v>92</v>
@@ -14733,10 +14733,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E33">
         <v>93</v>
@@ -14747,10 +14747,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E34">
         <v>94</v>
@@ -14761,10 +14761,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E35">
         <v>95</v>
@@ -14775,10 +14775,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E36">
         <v>96</v>
@@ -14789,10 +14789,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E37">
         <v>97</v>
@@ -14803,10 +14803,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E38">
         <v>98</v>
@@ -14817,10 +14817,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E39">
         <v>99</v>
@@ -14831,10 +14831,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -14845,10 +14845,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E41">
         <v>101</v>
@@ -14859,10 +14859,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E42">
         <v>102</v>
@@ -14873,10 +14873,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E43">
         <v>103</v>
@@ -14887,10 +14887,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E44">
         <v>104</v>
@@ -14901,10 +14901,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E45">
         <v>105</v>
@@ -14915,10 +14915,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E46">
         <v>106</v>
@@ -14929,10 +14929,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E47">
         <v>107</v>
@@ -14943,10 +14943,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E48">
         <v>108</v>
@@ -14957,10 +14957,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E49">
         <v>109</v>
@@ -14971,10 +14971,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E50">
         <v>110</v>
@@ -14985,10 +14985,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E51">
         <v>111</v>
@@ -14999,10 +14999,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E52">
         <v>112</v>
@@ -15013,10 +15013,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E53">
         <v>113</v>
@@ -15027,10 +15027,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E54">
         <v>114</v>
@@ -15041,10 +15041,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E55">
         <v>115</v>
@@ -15055,10 +15055,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E56">
         <v>116</v>
@@ -15069,10 +15069,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E57">
         <v>117</v>
@@ -15083,10 +15083,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E58">
         <v>118</v>
@@ -15097,10 +15097,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E59">
         <v>119</v>
@@ -15111,10 +15111,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E60">
         <v>120</v>
@@ -15125,10 +15125,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E61">
         <v>121</v>
@@ -15139,10 +15139,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E62">
         <v>122</v>
@@ -15153,10 +15153,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E63">
         <v>123</v>
@@ -15167,10 +15167,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E64">
         <v>124</v>
@@ -15181,10 +15181,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E65">
         <v>125</v>
@@ -15195,10 +15195,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E66">
         <v>126</v>
@@ -15209,10 +15209,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E67">
         <v>127</v>
@@ -15223,10 +15223,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E68">
         <v>128</v>
@@ -15237,10 +15237,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E69">
         <v>129</v>
@@ -15251,10 +15251,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E70">
         <v>130</v>
@@ -15265,10 +15265,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E71">
         <v>131</v>
@@ -15279,10 +15279,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E72">
         <v>132</v>
@@ -15293,10 +15293,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E73">
         <v>133</v>
@@ -15307,10 +15307,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E74">
         <v>134</v>
@@ -15321,10 +15321,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E75">
         <v>135</v>
@@ -15335,10 +15335,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E76">
         <v>136</v>
@@ -15349,10 +15349,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E77">
         <v>137</v>
@@ -15363,10 +15363,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E78">
         <v>138</v>
@@ -15377,10 +15377,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E79">
         <v>139</v>
@@ -15391,10 +15391,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E80">
         <v>140</v>
@@ -15405,10 +15405,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E81">
         <v>141</v>
@@ -15419,10 +15419,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E82">
         <v>142</v>
@@ -15433,10 +15433,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E83">
         <v>143</v>
@@ -15447,10 +15447,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E84">
         <v>144</v>
@@ -15461,10 +15461,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E85">
         <v>145</v>
@@ -15475,10 +15475,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E86">
         <v>146</v>
@@ -15489,10 +15489,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E87">
         <v>147</v>
@@ -15503,10 +15503,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E88">
         <v>148</v>
@@ -15517,10 +15517,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E89">
         <v>149</v>
@@ -15531,10 +15531,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E90">
         <v>150</v>
@@ -15545,10 +15545,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E91">
         <v>151</v>
@@ -15559,10 +15559,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E92">
         <v>152</v>
@@ -15573,10 +15573,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E93">
         <v>22</v>
@@ -15587,10 +15587,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E94">
         <v>23</v>
@@ -15601,10 +15601,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E95">
         <v>24</v>
@@ -15615,10 +15615,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E96">
         <v>28</v>
@@ -15629,10 +15629,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E97">
         <v>29</v>
@@ -15643,10 +15643,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E98">
         <v>30</v>
@@ -15657,10 +15657,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E99">
         <v>34</v>
@@ -15671,10 +15671,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E100">
         <v>35</v>
@@ -15685,10 +15685,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E101">
         <v>36</v>
@@ -15699,10 +15699,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E102">
         <v>40</v>
@@ -15713,10 +15713,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E103">
         <v>41</v>
@@ -15727,10 +15727,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E104">
         <v>42</v>
@@ -15741,10 +15741,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E105">
         <v>46</v>
@@ -15755,10 +15755,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E106">
         <v>47</v>
@@ -15769,10 +15769,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E107">
         <v>48</v>
@@ -15783,10 +15783,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E108">
         <v>52</v>
@@ -15797,10 +15797,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E109">
         <v>53</v>
@@ -15811,10 +15811,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E110">
         <v>54</v>
@@ -15825,10 +15825,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E111">
         <v>58</v>
@@ -15839,10 +15839,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E112">
         <v>59</v>
@@ -15853,10 +15853,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E113">
         <v>60</v>
@@ -15867,10 +15867,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E114">
         <v>64</v>
@@ -15881,10 +15881,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E115">
         <v>65</v>
@@ -15895,10 +15895,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E116">
         <v>66</v>
@@ -15909,10 +15909,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E117">
         <v>70</v>
@@ -15923,10 +15923,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E118">
         <v>71</v>
@@ -15937,10 +15937,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E119">
         <v>72</v>
@@ -15951,10 +15951,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E120">
         <v>76</v>
@@ -15965,10 +15965,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E121">
         <v>77</v>
@@ -15979,10 +15979,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E122">
         <v>78</v>
@@ -15993,10 +15993,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E123">
         <v>82</v>
@@ -16007,10 +16007,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E124">
         <v>83</v>
@@ -16021,10 +16021,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E125">
         <v>84</v>
@@ -16035,10 +16035,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E126">
         <v>25</v>
@@ -16049,10 +16049,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C127" s="30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E127">
         <v>26</v>
@@ -16063,10 +16063,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E128">
         <v>27</v>
@@ -16077,10 +16077,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E129">
         <v>31</v>
@@ -16091,10 +16091,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E130">
         <v>32</v>
@@ -16105,10 +16105,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E131">
         <v>33</v>
@@ -16119,10 +16119,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E132">
         <v>37</v>
@@ -16133,10 +16133,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E133">
         <v>38</v>
@@ -16147,10 +16147,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C134" s="30" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E134">
         <v>39</v>
@@ -16161,10 +16161,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E135">
         <v>43</v>
@@ -16175,10 +16175,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C136" s="30" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E136">
         <v>44</v>
@@ -16189,10 +16189,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E137">
         <v>45</v>
@@ -16203,10 +16203,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C138" s="30" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E138">
         <v>49</v>
@@ -16217,10 +16217,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C139" s="30" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E139">
         <v>50</v>
@@ -16231,10 +16231,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E140">
         <v>51</v>
@@ -16245,10 +16245,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E141">
         <v>55</v>
@@ -16259,10 +16259,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E142">
         <v>56</v>
@@ -16273,10 +16273,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E143">
         <v>57</v>
@@ -16287,10 +16287,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C144" s="30" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E144">
         <v>61</v>
@@ -16301,10 +16301,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E145">
         <v>62</v>
@@ -16315,10 +16315,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E146">
         <v>63</v>
@@ -16329,10 +16329,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C147" s="30" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E147">
         <v>67</v>
@@ -16343,10 +16343,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E148">
         <v>68</v>
@@ -16357,10 +16357,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E149">
         <v>69</v>
@@ -16371,10 +16371,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C150" s="30" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E150">
         <v>73</v>
@@ -16385,10 +16385,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E151">
         <v>74</v>
@@ -16399,10 +16399,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E152">
         <v>75</v>
@@ -16413,10 +16413,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E153">
         <v>79</v>
@@ -16427,10 +16427,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E154">
         <v>80</v>
@@ -16441,10 +16441,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E155">
         <v>81</v>
@@ -16455,10 +16455,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E156">
         <v>85</v>
@@ -16469,10 +16469,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E157">
         <v>86</v>
@@ -16483,10 +16483,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E158">
         <v>87</v>

--- a/Customized Program Main Dataframe Structure.xlsx
+++ b/Customized Program Main Dataframe Structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19250\Documents\GitHub\LoL-DIY-Programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C2F240-12F5-4EBB-968A-E1FA87DB7EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D304FB5D-1F91-494A-BB93-8833C119BF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{B2D932DB-2183-440F-AF66-43F3E8354BB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="6" xr2:uid="{B2D932DB-2183-440F-AF66-43F3E8354BB0}"/>
   </bookViews>
   <sheets>
     <sheet name="05 - mastery_header" sheetId="3" r:id="rId1"/>
@@ -19,16 +19,18 @@
     <sheet name="05 - LoLGame_timeline_header" sheetId="5" r:id="rId4"/>
     <sheet name="05 - TFTHistory_header" sheetId="7" r:id="rId5"/>
     <sheet name="05 - TFTGame_info_header" sheetId="9" r:id="rId6"/>
-    <sheet name="09 - queues_header" sheetId="2" r:id="rId7"/>
-    <sheet name="11 - recent_LoLPlayers_header" sheetId="1" r:id="rId8"/>
-    <sheet name="11 - recent_TFTPlayers_header" sheetId="10" r:id="rId9"/>
-    <sheet name="12 - player_loot_header" sheetId="11" r:id="rId10"/>
+    <sheet name="07 - catalog_header" sheetId="12" r:id="rId7"/>
+    <sheet name="07 - collection_header" sheetId="13" r:id="rId8"/>
+    <sheet name="09 - queues_header" sheetId="2" r:id="rId9"/>
+    <sheet name="11 - recent_LoLPlayers_header" sheetId="1" r:id="rId10"/>
+    <sheet name="11 - recent_TFTPlayers_header" sheetId="10" r:id="rId11"/>
+    <sheet name="12 - player_loot_header" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'05 - LoLGame_info_header'!$A$1:$E$136</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'05 - TFTHistory_header'!$A$1:$E$158</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'11 - recent_LoLPlayers_header'!$A$1:$E$139</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'11 - recent_TFTPlayers_header'!$A$1:$E$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'11 - recent_LoLPlayers_header'!$A$1:$E$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'11 - recent_TFTPlayers_header'!$A$1:$E$158</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="908">
   <si>
     <t>gameCreationDate</t>
   </si>
@@ -2744,6 +2746,180 @@
   </si>
   <si>
     <t>过往赛季最高赛段</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>可用性</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>imagePath</t>
+  </si>
+  <si>
+    <t>缩略图路径</t>
+  </si>
+  <si>
+    <t>停止销售日期</t>
+  </si>
+  <si>
+    <t>inventoryType</t>
+  </si>
+  <si>
+    <t>道具类型</t>
+  </si>
+  <si>
+    <t>itemId</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>itemInstanceId</t>
+  </si>
+  <si>
+    <t>识别码</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>元数据</t>
+  </si>
+  <si>
+    <t>offerId</t>
+  </si>
+  <si>
+    <t>交易代码</t>
+  </si>
+  <si>
+    <t>owned</t>
+  </si>
+  <si>
+    <t>已拥有</t>
+  </si>
+  <si>
+    <t>ownershipType</t>
+  </si>
+  <si>
+    <t>拥有状态</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>purchaseData</t>
+  </si>
+  <si>
+    <t>购买日期</t>
+  </si>
+  <si>
+    <t>questSkinInfo</t>
+  </si>
+  <si>
+    <t>赠送皮肤信息</t>
+  </si>
+  <si>
+    <t>releaseDate</t>
+  </si>
+  <si>
+    <t>发布日期</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>销售信息</t>
+  </si>
+  <si>
+    <t>subInventoryType</t>
+  </si>
+  <si>
+    <t>次级道具类型</t>
+  </si>
+  <si>
+    <t>subTitle</t>
+  </si>
+  <si>
+    <t>副标题</t>
+  </si>
+  <si>
+    <t>搜索关键词</t>
+  </si>
+  <si>
+    <t>inactiveDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expirationDate</t>
+  </si>
+  <si>
+    <t>租赁到期时间</t>
+  </si>
+  <si>
+    <t>f2p</t>
+  </si>
+  <si>
+    <t>免费使用</t>
+  </si>
+  <si>
+    <t>loyalty</t>
+  </si>
+  <si>
+    <t>loyaltySources</t>
+  </si>
+  <si>
+    <t>拥有权</t>
+  </si>
+  <si>
+    <t>purchaseDate</t>
+  </si>
+  <si>
+    <t>购买时间</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>rental</t>
+  </si>
+  <si>
+    <t>租借中</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>唯一识别码</t>
+  </si>
+  <si>
+    <t>使用该道具获得的胜场数</t>
+  </si>
+  <si>
+    <t>isVintage</t>
+  </si>
+  <si>
+    <t>典藏皮肤</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3496,6 +3672,4439 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E653D2-5962-4B6A-AE49-EF482E17CB95}">
+  <dimension ref="A1:E139"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E92">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E93">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E94">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="E95">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="E96">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>101</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>103</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>105</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>107</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>109</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>111</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E114">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>113</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>114</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>115</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D117" s="7"/>
+      <c r="E117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>116</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>117</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E119">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>118</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E120">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>119</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E121">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>120</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E122">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>121</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E123">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>122</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E124">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>123</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E125">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>124</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E126">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>125</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E127">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>126</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E128">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>127</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E129">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>128</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E130">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>129</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E131">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>130</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E132">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>131</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E133">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>132</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E134">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>133</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E135">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>134</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E136">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>135</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E137">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>136</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="E138">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A139" s="8">
+        <v>137</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D139" s="7"/>
+      <c r="E139">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D464B7-2503-4E39-93C9-118A187675BB}">
+  <dimension ref="A1:E158"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="C11" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>10</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>11</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>643</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>12</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="E14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>13</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>14</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>15</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>16</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
+        <v>17</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>19</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="20">
+        <v>20</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="D22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
+        <v>21</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
+        <v>22</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
+        <v>23</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>754</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
+        <v>24</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="20">
+        <v>25</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="D27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>26</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E28">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>27</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E29">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>28</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>29</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E31">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>30</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E32">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>31</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E33">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>32</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E34">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>33</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>34</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="E36">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>35</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E37">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>36</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="E38">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <v>37</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E39">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
+        <v>38</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>39</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E41">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
+        <v>40</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E42">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>41</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E43">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
+        <v>42</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E44">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
+        <v>43</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="E45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
+        <v>44</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E46">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
+        <v>45</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E47">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
+        <v>46</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E48">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
+        <v>47</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E49">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
+        <v>48</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="E50">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
+        <v>49</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E51">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
+        <v>50</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="E52">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
+        <v>51</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E53">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
+        <v>52</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E54">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
+        <v>53</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E55">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
+        <v>54</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E56">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
+        <v>55</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="E57">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
+        <v>56</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E58">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
+        <v>57</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="E59">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
+        <v>58</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="E60">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
+        <v>59</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E61">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
+        <v>60</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E62">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
+        <v>61</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E63">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="8">
+        <v>62</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E64">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="8">
+        <v>63</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E65">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="8">
+        <v>64</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E66">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="8">
+        <v>65</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E67">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="8">
+        <v>66</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E68">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="8">
+        <v>67</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E69">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="8">
+        <v>68</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E70">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="8">
+        <v>69</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E71">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="8">
+        <v>70</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E72">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="8">
+        <v>71</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E73">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="8">
+        <v>72</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="E74">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="8">
+        <v>73</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E75">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="8">
+        <v>74</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="E76">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="8">
+        <v>75</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E77">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="8">
+        <v>76</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E78">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="8">
+        <v>77</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E79">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="8">
+        <v>78</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E80">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="8">
+        <v>79</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="E81">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="8">
+        <v>80</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E82">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="8">
+        <v>81</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="E83">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="8">
+        <v>82</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E84">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="8">
+        <v>83</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="E85">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="8">
+        <v>84</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E86">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="8">
+        <v>85</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E87">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="8">
+        <v>86</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E88">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="8">
+        <v>87</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="E89">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="8">
+        <v>88</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E90">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="8">
+        <v>89</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E91">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="8">
+        <v>90</v>
+      </c>
+      <c r="B92" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E92">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="30">
+        <v>91</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="E93">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="30">
+        <v>92</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="E94">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="30">
+        <v>93</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="E95">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="30">
+        <v>94</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="E96">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="30">
+        <v>95</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="E97">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="30">
+        <v>96</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="E98">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="30">
+        <v>97</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="E99">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="30">
+        <v>98</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="E100">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="30">
+        <v>99</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="E101">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="30">
+        <v>100</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="E102">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="30">
+        <v>101</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="E103">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="30">
+        <v>102</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="E104">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="30">
+        <v>103</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="E105">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106" s="30">
+        <v>104</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>529</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="E106">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="30">
+        <v>105</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="E107">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="30">
+        <v>106</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="E108">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="30">
+        <v>107</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>535</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="E109">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110" s="30">
+        <v>108</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="E110">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="30">
+        <v>109</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="E111">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" s="30">
+        <v>110</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="E112">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" s="30">
+        <v>111</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="E113">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="30">
+        <v>112</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="E114">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="30">
+        <v>113</v>
+      </c>
+      <c r="B115" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="E115">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="30">
+        <v>114</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>549</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="E116">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="30">
+        <v>115</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="E117">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A118" s="30">
+        <v>116</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="E118">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A119" s="30">
+        <v>117</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="E119">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A120" s="30">
+        <v>118</v>
+      </c>
+      <c r="B120" s="31" t="s">
+        <v>557</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="E120">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" s="30">
+        <v>119</v>
+      </c>
+      <c r="B121" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="E121">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122" s="30">
+        <v>120</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="E122">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" s="30">
+        <v>121</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="E123">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A124" s="30">
+        <v>122</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="E124">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125" s="30">
+        <v>123</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="E125">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126" s="30">
+        <v>124</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>569</v>
+      </c>
+      <c r="C126" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="E126">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A127" s="30">
+        <v>125</v>
+      </c>
+      <c r="B127" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="E127">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128" s="30">
+        <v>126</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="E128">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129" s="30">
+        <v>127</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="E129">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130" s="30">
+        <v>128</v>
+      </c>
+      <c r="B130" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="E130">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A131" s="30">
+        <v>129</v>
+      </c>
+      <c r="B131" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="C131" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="E131">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132" s="30">
+        <v>130</v>
+      </c>
+      <c r="B132" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="C132" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="E132">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A133" s="30">
+        <v>131</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="C133" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="E133">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A134" s="30">
+        <v>132</v>
+      </c>
+      <c r="B134" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="C134" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="E134">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="30">
+        <v>133</v>
+      </c>
+      <c r="B135" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="C135" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="E135">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136" s="30">
+        <v>134</v>
+      </c>
+      <c r="B136" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="E136">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" s="30">
+        <v>135</v>
+      </c>
+      <c r="B137" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="E137">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A138" s="30">
+        <v>136</v>
+      </c>
+      <c r="B138" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="C138" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="E138">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A139" s="30">
+        <v>137</v>
+      </c>
+      <c r="B139" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="C139" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="E139">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A140" s="30">
+        <v>138</v>
+      </c>
+      <c r="B140" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="E140">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A141" s="30">
+        <v>139</v>
+      </c>
+      <c r="B141" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="C141" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="E141">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A142" s="30">
+        <v>140</v>
+      </c>
+      <c r="B142" s="31" t="s">
+        <v>601</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="E142">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A143" s="30">
+        <v>141</v>
+      </c>
+      <c r="B143" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="E143">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" s="30">
+        <v>142</v>
+      </c>
+      <c r="B144" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="C144" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="E144">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A145" s="30">
+        <v>143</v>
+      </c>
+      <c r="B145" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="E145">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A146" s="30">
+        <v>144</v>
+      </c>
+      <c r="B146" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="E146">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A147" s="30">
+        <v>145</v>
+      </c>
+      <c r="B147" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C147" s="30" t="s">
+        <v>612</v>
+      </c>
+      <c r="E147">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A148" s="30">
+        <v>146</v>
+      </c>
+      <c r="B148" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="E148">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="30">
+        <v>147</v>
+      </c>
+      <c r="B149" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>616</v>
+      </c>
+      <c r="E149">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A150" s="30">
+        <v>148</v>
+      </c>
+      <c r="B150" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="C150" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="E150">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A151" s="30">
+        <v>149</v>
+      </c>
+      <c r="B151" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="E151">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152" s="30">
+        <v>150</v>
+      </c>
+      <c r="B152" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="E152">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A153" s="30">
+        <v>151</v>
+      </c>
+      <c r="B153" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="C153" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="E153">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A154" s="30">
+        <v>152</v>
+      </c>
+      <c r="B154" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="E154">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A155" s="30">
+        <v>153</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>627</v>
+      </c>
+      <c r="C155" s="30" t="s">
+        <v>628</v>
+      </c>
+      <c r="E155">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A156" s="30">
+        <v>154</v>
+      </c>
+      <c r="B156" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="C156" s="30" t="s">
+        <v>630</v>
+      </c>
+      <c r="E156">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A157" s="30">
+        <v>155</v>
+      </c>
+      <c r="B157" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>632</v>
+      </c>
+      <c r="E157">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A158" s="30">
+        <v>156</v>
+      </c>
+      <c r="B158" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="E158">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B45046-550B-4F7D-838A-D2B016D38862}">
   <dimension ref="A1:E35"/>
   <sheetViews>
@@ -4042,7 +8651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D295003-94F1-4092-B083-F421347C65B6}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11181,6 +15790,625 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9078C510-49E8-4816-91AD-BE458B8B69FF}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="C2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="C3" t="s">
+        <v>854</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="C4" t="s">
+        <v>856</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="C5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="C6" t="s">
+        <v>859</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="C7" t="s">
+        <v>861</v>
+      </c>
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="C8" t="s">
+        <v>863</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="C9" t="s">
+        <v>865</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="C11" t="s">
+        <v>867</v>
+      </c>
+      <c r="D11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="C12" t="s">
+        <v>869</v>
+      </c>
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="C13" t="s">
+        <v>871</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="C14" t="s">
+        <v>873</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="C15" t="s">
+        <v>875</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="C16" t="s">
+        <v>877</v>
+      </c>
+      <c r="D16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="C17" t="s">
+        <v>879</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="C18" t="s">
+        <v>881</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="C19" t="s">
+        <v>883</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="C20" t="s">
+        <v>885</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="C21" t="s">
+        <v>886</v>
+      </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1825EA8B-04E8-4ED7-BEFA-85B1FF72FE52}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="C2" t="s">
+        <v>889</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="C3" t="s">
+        <v>891</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="C4" t="s">
+        <v>859</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="C5" t="s">
+        <v>861</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="C8" t="s">
+        <v>869</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="C9" t="s">
+        <v>894</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="C10" t="s">
+        <v>896</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="C11" t="s">
+        <v>898</v>
+      </c>
+      <c r="D11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>899</v>
+      </c>
+      <c r="C12" t="s">
+        <v>900</v>
+      </c>
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="C13" t="s">
+        <v>902</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" t="s">
+        <v>903</v>
+      </c>
+      <c r="D14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>905</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="C16" t="s">
+        <v>907</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
+    <sortCondition ref="A1:A16"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8672D3B3-4AAA-4AC1-99DA-D800CB3EF628}">
   <dimension ref="A1:E56"/>
   <sheetViews>
@@ -12064,4437 +17292,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E653D2-5962-4B6A-AE49-EF482E17CB95}">
-  <dimension ref="A1:E139"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>32</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>36</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>37</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>38</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>39</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>40</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>41</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>42</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>43</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>44</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>45</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>46</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>47</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>48</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>49</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>50</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>51</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E53">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>52</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>53</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E55">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>54</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E56">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>55</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E57">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>56</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>57</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E59">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>58</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>59</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>711</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>60</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>61</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>62</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>63</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>64</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>713</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>65</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>66</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>67</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>68</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
-        <v>69</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="D71" s="7"/>
-      <c r="E71">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>70</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>71</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>72</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>73</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="D75" s="7"/>
-      <c r="E75">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>74</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>75</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <v>76</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>77</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <v>78</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="D80" s="7"/>
-      <c r="E80">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>79</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>716</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="D81" s="7"/>
-      <c r="E81">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
-        <v>80</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
-        <v>81</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
-        <v>82</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
-        <v>83</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D85" s="7"/>
-      <c r="E85">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
-        <v>84</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="D86" s="7"/>
-      <c r="E86">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
-        <v>85</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
-        <v>86</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
-        <v>87</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
-        <v>88</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="D90" s="7"/>
-      <c r="E90">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
-        <v>89</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="D91" s="7"/>
-      <c r="E91">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
-        <v>90</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
-        <v>91</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E93">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
-        <v>92</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E94">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
-        <v>93</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="D95" s="7"/>
-      <c r="E95">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
-        <v>94</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>758</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="D96" s="7"/>
-      <c r="E96">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
-        <v>95</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="D97" s="7"/>
-      <c r="E97">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
-        <v>96</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>759</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="D98" s="7"/>
-      <c r="E98">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
-        <v>97</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="D99" s="7"/>
-      <c r="E99">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
-        <v>98</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>763</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="D100" s="7"/>
-      <c r="E100">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
-        <v>99</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="D101" s="7"/>
-      <c r="E101">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
-        <v>100</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="D102" s="7"/>
-      <c r="E102">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
-        <v>101</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
-        <v>102</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
-        <v>103</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
-        <v>104</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
-        <v>105</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
-        <v>106</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
-        <v>107</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
-        <v>108</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
-        <v>109</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
-        <v>110</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
-        <v>111</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D113" s="7"/>
-    </row>
-    <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
-        <v>112</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E114">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
-        <v>113</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E115">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
-        <v>114</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
-        <v>115</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D117" s="7"/>
-      <c r="E117">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
-        <v>116</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E118">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
-        <v>117</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E119">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
-        <v>118</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E120">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
-        <v>119</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E121">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
-        <v>120</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E122">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
-        <v>121</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E123">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
-        <v>122</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E124">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
-        <v>123</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E125">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="3">
-        <v>124</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E126">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
-        <v>125</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E127">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
-        <v>126</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E128">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
-        <v>127</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E129">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="3">
-        <v>128</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E130">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
-        <v>129</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E131">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="3">
-        <v>130</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E132">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
-        <v>131</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E133">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
-        <v>132</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E134">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
-        <v>133</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E135">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
-        <v>134</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E136">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
-        <v>135</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E137">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
-        <v>136</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D138" s="7"/>
-      <c r="E138">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="8">
-        <v>137</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D139" s="7"/>
-      <c r="E139">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D464B7-2503-4E39-93C9-118A187675BB}">
-  <dimension ref="A1:E158"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>634</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>635</v>
-      </c>
-      <c r="D7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
-        <v>6</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>636</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>646</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>647</v>
-      </c>
-      <c r="D9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>638</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="D10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="C11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
-        <v>10</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>639</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="E12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
-        <v>11</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>640</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>643</v>
-      </c>
-      <c r="E13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
-        <v>12</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>641</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>644</v>
-      </c>
-      <c r="E14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
-        <v>13</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="E15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
-        <v>14</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>651</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>650</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
-        <v>15</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>652</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>653</v>
-      </c>
-      <c r="E17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
-        <v>16</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="D18" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="20">
-        <v>17</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="E19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="D20" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
-        <v>19</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="D21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
-        <v>20</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="D22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
-        <v>21</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="20">
-        <v>22</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>755</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
-        <v>23</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>754</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>756</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="20">
-        <v>24</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="E26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="20">
-        <v>25</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="D27" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>26</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E28">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>27</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E29">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <v>28</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="E30">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>29</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E31">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>30</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="E32">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>31</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E33">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
-        <v>32</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E34">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
-        <v>33</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E35">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
-        <v>34</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="E36">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
-        <v>35</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="E37">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
-        <v>36</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="E38">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
-        <v>37</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E39">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
-        <v>38</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>397</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="E40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
-        <v>39</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="E41">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
-        <v>40</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="E42">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
-        <v>41</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="E43">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
-        <v>42</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E44">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
-        <v>43</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="E45">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
-        <v>44</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="E46">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
-        <v>45</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>411</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="E47">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
-        <v>46</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E48">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
-        <v>47</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="E49">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
-        <v>48</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="E50">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
-        <v>49</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>419</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="E51">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
-        <v>50</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="E52">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
-        <v>51</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="E53">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
-        <v>52</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="E54">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
-        <v>53</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E55">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
-        <v>54</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="E56">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
-        <v>55</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="E57">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
-        <v>56</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E58">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
-        <v>57</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="E59">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
-        <v>58</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="E60">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
-        <v>59</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="E61">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
-        <v>60</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>441</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="E62">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
-        <v>61</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>443</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="E63">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
-        <v>62</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="E64">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="8">
-        <v>63</v>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="E65">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="8">
-        <v>64</v>
-      </c>
-      <c r="B66" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="E66">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="8">
-        <v>65</v>
-      </c>
-      <c r="B67" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="E67">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="8">
-        <v>66</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>453</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="E68">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
-        <v>67</v>
-      </c>
-      <c r="B69" s="29" t="s">
-        <v>455</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="E69">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
-        <v>68</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>457</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E70">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="8">
-        <v>69</v>
-      </c>
-      <c r="B71" s="29" t="s">
-        <v>459</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="E71">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
-        <v>70</v>
-      </c>
-      <c r="B72" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="E72">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
-        <v>71</v>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="E73">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
-        <v>72</v>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="E74">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="8">
-        <v>73</v>
-      </c>
-      <c r="B75" s="29" t="s">
-        <v>467</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="E75">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
-        <v>74</v>
-      </c>
-      <c r="B76" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="E76">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="8">
-        <v>75</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="E77">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
-        <v>76</v>
-      </c>
-      <c r="B78" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="E78">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="8">
-        <v>77</v>
-      </c>
-      <c r="B79" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="E79">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
-        <v>78</v>
-      </c>
-      <c r="B80" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="E80">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="8">
-        <v>79</v>
-      </c>
-      <c r="B81" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="E81">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
-        <v>80</v>
-      </c>
-      <c r="B82" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="E82">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="8">
-        <v>81</v>
-      </c>
-      <c r="B83" s="29" t="s">
-        <v>483</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="E83">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
-        <v>82</v>
-      </c>
-      <c r="B84" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="E84">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="8">
-        <v>83</v>
-      </c>
-      <c r="B85" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="E85">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
-        <v>84</v>
-      </c>
-      <c r="B86" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="E86">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="8">
-        <v>85</v>
-      </c>
-      <c r="B87" s="29" t="s">
-        <v>491</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E87">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
-        <v>86</v>
-      </c>
-      <c r="B88" s="29" t="s">
-        <v>493</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="E88">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
-        <v>87</v>
-      </c>
-      <c r="B89" s="29" t="s">
-        <v>495</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="E89">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
-        <v>88</v>
-      </c>
-      <c r="B90" s="29" t="s">
-        <v>497</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="E90">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="8">
-        <v>89</v>
-      </c>
-      <c r="B91" s="29" t="s">
-        <v>499</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="E91">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
-        <v>90</v>
-      </c>
-      <c r="B92" s="29" t="s">
-        <v>501</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="E92">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="30">
-        <v>91</v>
-      </c>
-      <c r="B93" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="C93" s="30" t="s">
-        <v>504</v>
-      </c>
-      <c r="E93">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="30">
-        <v>92</v>
-      </c>
-      <c r="B94" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="C94" s="30" t="s">
-        <v>506</v>
-      </c>
-      <c r="E94">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="30">
-        <v>93</v>
-      </c>
-      <c r="B95" s="31" t="s">
-        <v>507</v>
-      </c>
-      <c r="C95" s="30" t="s">
-        <v>508</v>
-      </c>
-      <c r="E95">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="30">
-        <v>94</v>
-      </c>
-      <c r="B96" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="C96" s="30" t="s">
-        <v>510</v>
-      </c>
-      <c r="E96">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="30">
-        <v>95</v>
-      </c>
-      <c r="B97" s="31" t="s">
-        <v>511</v>
-      </c>
-      <c r="C97" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="E97">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="30">
-        <v>96</v>
-      </c>
-      <c r="B98" s="31" t="s">
-        <v>513</v>
-      </c>
-      <c r="C98" s="30" t="s">
-        <v>514</v>
-      </c>
-      <c r="E98">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="30">
-        <v>97</v>
-      </c>
-      <c r="B99" s="31" t="s">
-        <v>515</v>
-      </c>
-      <c r="C99" s="30" t="s">
-        <v>516</v>
-      </c>
-      <c r="E99">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="30">
-        <v>98</v>
-      </c>
-      <c r="B100" s="31" t="s">
-        <v>517</v>
-      </c>
-      <c r="C100" s="30" t="s">
-        <v>518</v>
-      </c>
-      <c r="E100">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="30">
-        <v>99</v>
-      </c>
-      <c r="B101" s="31" t="s">
-        <v>519</v>
-      </c>
-      <c r="C101" s="30" t="s">
-        <v>520</v>
-      </c>
-      <c r="E101">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="30">
-        <v>100</v>
-      </c>
-      <c r="B102" s="31" t="s">
-        <v>521</v>
-      </c>
-      <c r="C102" s="30" t="s">
-        <v>522</v>
-      </c>
-      <c r="E102">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="30">
-        <v>101</v>
-      </c>
-      <c r="B103" s="31" t="s">
-        <v>523</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>524</v>
-      </c>
-      <c r="E103">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="30">
-        <v>102</v>
-      </c>
-      <c r="B104" s="31" t="s">
-        <v>525</v>
-      </c>
-      <c r="C104" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="E104">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="30">
-        <v>103</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>527</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>528</v>
-      </c>
-      <c r="E105">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="30">
-        <v>104</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>529</v>
-      </c>
-      <c r="C106" s="30" t="s">
-        <v>530</v>
-      </c>
-      <c r="E106">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="30">
-        <v>105</v>
-      </c>
-      <c r="B107" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="C107" s="30" t="s">
-        <v>532</v>
-      </c>
-      <c r="E107">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="30">
-        <v>106</v>
-      </c>
-      <c r="B108" s="31" t="s">
-        <v>533</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>534</v>
-      </c>
-      <c r="E108">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="30">
-        <v>107</v>
-      </c>
-      <c r="B109" s="31" t="s">
-        <v>535</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>536</v>
-      </c>
-      <c r="E109">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="30">
-        <v>108</v>
-      </c>
-      <c r="B110" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="C110" s="30" t="s">
-        <v>538</v>
-      </c>
-      <c r="E110">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="30">
-        <v>109</v>
-      </c>
-      <c r="B111" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="C111" s="30" t="s">
-        <v>540</v>
-      </c>
-      <c r="E111">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="30">
-        <v>110</v>
-      </c>
-      <c r="B112" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="C112" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="E112">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="30">
-        <v>111</v>
-      </c>
-      <c r="B113" s="31" t="s">
-        <v>543</v>
-      </c>
-      <c r="C113" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="E113">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="30">
-        <v>112</v>
-      </c>
-      <c r="B114" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C114" s="30" t="s">
-        <v>546</v>
-      </c>
-      <c r="E114">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="30">
-        <v>113</v>
-      </c>
-      <c r="B115" s="31" t="s">
-        <v>547</v>
-      </c>
-      <c r="C115" s="30" t="s">
-        <v>548</v>
-      </c>
-      <c r="E115">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="30">
-        <v>114</v>
-      </c>
-      <c r="B116" s="31" t="s">
-        <v>549</v>
-      </c>
-      <c r="C116" s="30" t="s">
-        <v>550</v>
-      </c>
-      <c r="E116">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="30">
-        <v>115</v>
-      </c>
-      <c r="B117" s="31" t="s">
-        <v>551</v>
-      </c>
-      <c r="C117" s="30" t="s">
-        <v>552</v>
-      </c>
-      <c r="E117">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="30">
-        <v>116</v>
-      </c>
-      <c r="B118" s="31" t="s">
-        <v>553</v>
-      </c>
-      <c r="C118" s="30" t="s">
-        <v>554</v>
-      </c>
-      <c r="E118">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="30">
-        <v>117</v>
-      </c>
-      <c r="B119" s="31" t="s">
-        <v>555</v>
-      </c>
-      <c r="C119" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="E119">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="30">
-        <v>118</v>
-      </c>
-      <c r="B120" s="31" t="s">
-        <v>557</v>
-      </c>
-      <c r="C120" s="30" t="s">
-        <v>558</v>
-      </c>
-      <c r="E120">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A121" s="30">
-        <v>119</v>
-      </c>
-      <c r="B121" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>560</v>
-      </c>
-      <c r="E121">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A122" s="30">
-        <v>120</v>
-      </c>
-      <c r="B122" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>562</v>
-      </c>
-      <c r="E122">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="30">
-        <v>121</v>
-      </c>
-      <c r="B123" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="C123" s="30" t="s">
-        <v>564</v>
-      </c>
-      <c r="E123">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="30">
-        <v>122</v>
-      </c>
-      <c r="B124" s="31" t="s">
-        <v>565</v>
-      </c>
-      <c r="C124" s="30" t="s">
-        <v>566</v>
-      </c>
-      <c r="E124">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="30">
-        <v>123</v>
-      </c>
-      <c r="B125" s="31" t="s">
-        <v>567</v>
-      </c>
-      <c r="C125" s="30" t="s">
-        <v>568</v>
-      </c>
-      <c r="E125">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="30">
-        <v>124</v>
-      </c>
-      <c r="B126" s="31" t="s">
-        <v>569</v>
-      </c>
-      <c r="C126" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="E126">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="30">
-        <v>125</v>
-      </c>
-      <c r="B127" s="31" t="s">
-        <v>571</v>
-      </c>
-      <c r="C127" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="E127">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="30">
-        <v>126</v>
-      </c>
-      <c r="B128" s="31" t="s">
-        <v>573</v>
-      </c>
-      <c r="C128" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="E128">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="30">
-        <v>127</v>
-      </c>
-      <c r="B129" s="31" t="s">
-        <v>575</v>
-      </c>
-      <c r="C129" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="E129">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="30">
-        <v>128</v>
-      </c>
-      <c r="B130" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="C130" s="30" t="s">
-        <v>578</v>
-      </c>
-      <c r="E130">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="30">
-        <v>129</v>
-      </c>
-      <c r="B131" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="C131" s="30" t="s">
-        <v>580</v>
-      </c>
-      <c r="E131">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="30">
-        <v>130</v>
-      </c>
-      <c r="B132" s="31" t="s">
-        <v>581</v>
-      </c>
-      <c r="C132" s="30" t="s">
-        <v>582</v>
-      </c>
-      <c r="E132">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="30">
-        <v>131</v>
-      </c>
-      <c r="B133" s="31" t="s">
-        <v>583</v>
-      </c>
-      <c r="C133" s="30" t="s">
-        <v>584</v>
-      </c>
-      <c r="E133">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="30">
-        <v>132</v>
-      </c>
-      <c r="B134" s="31" t="s">
-        <v>585</v>
-      </c>
-      <c r="C134" s="30" t="s">
-        <v>586</v>
-      </c>
-      <c r="E134">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="30">
-        <v>133</v>
-      </c>
-      <c r="B135" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="C135" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="E135">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="30">
-        <v>134</v>
-      </c>
-      <c r="B136" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="C136" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="E136">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="30">
-        <v>135</v>
-      </c>
-      <c r="B137" s="31" t="s">
-        <v>591</v>
-      </c>
-      <c r="C137" s="30" t="s">
-        <v>592</v>
-      </c>
-      <c r="E137">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="30">
-        <v>136</v>
-      </c>
-      <c r="B138" s="31" t="s">
-        <v>593</v>
-      </c>
-      <c r="C138" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="E138">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="30">
-        <v>137</v>
-      </c>
-      <c r="B139" s="31" t="s">
-        <v>595</v>
-      </c>
-      <c r="C139" s="30" t="s">
-        <v>596</v>
-      </c>
-      <c r="E139">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="30">
-        <v>138</v>
-      </c>
-      <c r="B140" s="31" t="s">
-        <v>597</v>
-      </c>
-      <c r="C140" s="30" t="s">
-        <v>598</v>
-      </c>
-      <c r="E140">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="30">
-        <v>139</v>
-      </c>
-      <c r="B141" s="31" t="s">
-        <v>599</v>
-      </c>
-      <c r="C141" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="E141">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="30">
-        <v>140</v>
-      </c>
-      <c r="B142" s="31" t="s">
-        <v>601</v>
-      </c>
-      <c r="C142" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="E142">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="30">
-        <v>141</v>
-      </c>
-      <c r="B143" s="31" t="s">
-        <v>603</v>
-      </c>
-      <c r="C143" s="30" t="s">
-        <v>604</v>
-      </c>
-      <c r="E143">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="30">
-        <v>142</v>
-      </c>
-      <c r="B144" s="31" t="s">
-        <v>605</v>
-      </c>
-      <c r="C144" s="30" t="s">
-        <v>606</v>
-      </c>
-      <c r="E144">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="30">
-        <v>143</v>
-      </c>
-      <c r="B145" s="31" t="s">
-        <v>607</v>
-      </c>
-      <c r="C145" s="30" t="s">
-        <v>608</v>
-      </c>
-      <c r="E145">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="30">
-        <v>144</v>
-      </c>
-      <c r="B146" s="31" t="s">
-        <v>609</v>
-      </c>
-      <c r="C146" s="30" t="s">
-        <v>610</v>
-      </c>
-      <c r="E146">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="30">
-        <v>145</v>
-      </c>
-      <c r="B147" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C147" s="30" t="s">
-        <v>612</v>
-      </c>
-      <c r="E147">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="30">
-        <v>146</v>
-      </c>
-      <c r="B148" s="31" t="s">
-        <v>613</v>
-      </c>
-      <c r="C148" s="30" t="s">
-        <v>614</v>
-      </c>
-      <c r="E148">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="30">
-        <v>147</v>
-      </c>
-      <c r="B149" s="31" t="s">
-        <v>615</v>
-      </c>
-      <c r="C149" s="30" t="s">
-        <v>616</v>
-      </c>
-      <c r="E149">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="30">
-        <v>148</v>
-      </c>
-      <c r="B150" s="31" t="s">
-        <v>617</v>
-      </c>
-      <c r="C150" s="30" t="s">
-        <v>618</v>
-      </c>
-      <c r="E150">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A151" s="30">
-        <v>149</v>
-      </c>
-      <c r="B151" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="C151" s="30" t="s">
-        <v>620</v>
-      </c>
-      <c r="E151">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="30">
-        <v>150</v>
-      </c>
-      <c r="B152" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="C152" s="30" t="s">
-        <v>622</v>
-      </c>
-      <c r="E152">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A153" s="30">
-        <v>151</v>
-      </c>
-      <c r="B153" s="31" t="s">
-        <v>623</v>
-      </c>
-      <c r="C153" s="30" t="s">
-        <v>624</v>
-      </c>
-      <c r="E153">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="30">
-        <v>152</v>
-      </c>
-      <c r="B154" s="31" t="s">
-        <v>625</v>
-      </c>
-      <c r="C154" s="30" t="s">
-        <v>626</v>
-      </c>
-      <c r="E154">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="30">
-        <v>153</v>
-      </c>
-      <c r="B155" s="31" t="s">
-        <v>627</v>
-      </c>
-      <c r="C155" s="30" t="s">
-        <v>628</v>
-      </c>
-      <c r="E155">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="30">
-        <v>154</v>
-      </c>
-      <c r="B156" s="31" t="s">
-        <v>629</v>
-      </c>
-      <c r="C156" s="30" t="s">
-        <v>630</v>
-      </c>
-      <c r="E156">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="30">
-        <v>155</v>
-      </c>
-      <c r="B157" s="31" t="s">
-        <v>631</v>
-      </c>
-      <c r="C157" s="30" t="s">
-        <v>632</v>
-      </c>
-      <c r="E157">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="30">
-        <v>156</v>
-      </c>
-      <c r="B158" s="31" t="s">
-        <v>633</v>
-      </c>
-      <c r="C158" s="30" t="s">
-        <v>649</v>
-      </c>
-      <c r="E158">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Customized Program Main Dataframe Structure.xlsx
+++ b/Customized Program Main Dataframe Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19250\Documents\GitHub\LoL-DIY-Programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D304FB5D-1F91-494A-BB93-8833C119BF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEFEF9B-1844-4810-A2FE-457A2CE90BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="6" xr2:uid="{B2D932DB-2183-440F-AF66-43F3E8354BB0}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="908">
   <si>
     <t>gameCreationDate</t>
   </si>
@@ -15793,7 +15793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9078C510-49E8-4816-91AD-BE458B8B69FF}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15847,9 +15849,6 @@
       <c r="C3" t="s">
         <v>854</v>
       </c>
-      <c r="D3" t="s">
-        <v>149</v>
-      </c>
       <c r="E3">
         <v>2</v>
       </c>
@@ -15956,9 +15955,6 @@
       </c>
       <c r="C10" t="s">
         <v>239</v>
-      </c>
-      <c r="D10" t="s">
-        <v>149</v>
       </c>
       <c r="E10">
         <v>0</v>

--- a/Customized Program Main Dataframe Structure.xlsx
+++ b/Customized Program Main Dataframe Structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19250\Documents\GitHub\LoL-DIY-Programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8B1716-349F-473D-8CDF-42B27B0A84B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AE6F39-E1D4-4D56-A3CF-2C0F427790FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="4" xr2:uid="{B2D932DB-2183-440F-AF66-43F3E8354BB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B2D932DB-2183-440F-AF66-43F3E8354BB0}"/>
   </bookViews>
   <sheets>
     <sheet name="05 - mastery_header" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'05 - LoLGame_info_header'!$A$1:$E$142</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'05 - TFTHistory_header'!$A$1:$E$160</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'11 - LoLGame_info_header'!$A$1:$E$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'11 - LoLGame_info_header'!$A$1:$E$149</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'11 - TFTHistory_header'!$A$1:$E$160</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="938">
   <si>
     <t>gameCreationDate</t>
   </si>
@@ -3003,6 +3003,30 @@
   </si>
   <si>
     <t>召唤师图标序号</t>
+  </si>
+  <si>
+    <t>阵营</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formattedChampionPoints</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formattedMasteryGoal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总成就点数（千位分隔符）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一级成就点数（千位分隔符）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3132,7 +3156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3227,6 +3251,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3555,9 +3582,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF82C05-E00D-47FE-907F-7796571974D3}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3703,47 +3730,95 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>250</v>
+        <v>933</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
+        <v>935</v>
+      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>252</v>
+        <v>934</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>253</v>
+        <v>936</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10">
-        <v>8</v>
-      </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>937</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11">
+      <c r="D15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15">
         <v>9</v>
       </c>
     </row>
@@ -3756,7 +3831,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E653D2-5962-4B6A-AE49-EF482E17CB95}">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3796,7 +3871,7 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3811,7 +3886,7 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3828,7 +3903,7 @@
         <v>149</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3843,7 +3918,7 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3858,7 +3933,7 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3875,7 +3950,7 @@
         <v>149</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3892,7 +3967,7 @@
         <v>149</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3909,7 +3984,7 @@
         <v>149</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4083,7 +4158,7 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -4091,14 +4166,14 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -4106,7 +4181,7 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4114,25 +4189,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>13</v>
+        <v>926</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>84</v>
+        <v>927</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>14</v>
+      <c r="B24" s="32" t="s">
+        <v>13</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24">
@@ -4143,61 +4218,56 @@
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>15</v>
+      <c r="B25" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>149</v>
+      <c r="B26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>87</v>
+      <c r="B27" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>932</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27">
-        <v>100</v>
-      </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>88</v>
+        <v>299</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="E28">
-        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4205,16 +4275,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E29">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4222,16 +4292,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E30">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4239,16 +4309,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E31">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4256,16 +4326,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E32">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4273,13 +4343,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>301</v>
+        <v>91</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="E33">
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4287,16 +4360,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E34">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4304,14 +4377,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>23</v>
+        <v>300</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35">
-        <v>101</v>
+        <v>301</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4319,14 +4391,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E36">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4334,14 +4408,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E37">
-        <v>41</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4349,14 +4425,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>302</v>
+        <v>24</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D38" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E38">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4364,14 +4442,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>304</v>
+        <v>25</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D39" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E39">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4379,14 +4459,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="7"/>
+        <v>303</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E40">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4394,14 +4476,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>27</v>
+        <v>304</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="7"/>
+        <v>305</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E41">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4409,14 +4493,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D42" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E42">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4424,14 +4510,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>308</v>
+        <v>27</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D43" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E43">
-        <v>104</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4439,16 +4527,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>28</v>
+        <v>306</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>99</v>
+        <v>307</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E44">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4456,16 +4544,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>29</v>
+        <v>308</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>100</v>
+        <v>309</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E45">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4473,46 +4561,50 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E46">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>31</v>
+      <c r="B47" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E47">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>32</v>
+      <c r="B48" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E48">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4520,14 +4612,14 @@
         <v>47</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4535,14 +4627,14 @@
         <v>48</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4550,14 +4642,14 @@
         <v>49</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4565,14 +4657,14 @@
         <v>50</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4580,45 +4672,44 @@
         <v>51</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>38</v>
+      <c r="B54" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D54" s="7"/>
       <c r="E54">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>53</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>310</v>
+      <c r="B55" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>149</v>
+        <v>108</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55">
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4626,16 +4717,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E56">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4643,16 +4734,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>111</v>
+        <v>311</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="E57">
-        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4660,16 +4748,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E58">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4677,16 +4765,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E59">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4694,16 +4782,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>312</v>
+        <v>41</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E60">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4711,16 +4799,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>313</v>
+        <v>42</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E61">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4728,16 +4816,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E62">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4745,16 +4833,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E63">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4762,16 +4850,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E64">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4779,10 +4867,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>315</v>
+        <v>117</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>149</v>
@@ -4796,13 +4884,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>661</v>
+        <v>45</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>662</v>
+        <v>118</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="E66">
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4810,16 +4901,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>46</v>
+        <v>314</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>119</v>
+        <v>315</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E67">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4827,29 +4918,30 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68">
-        <v>88</v>
+        <v>662</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>67</v>
       </c>
-      <c r="B69" s="17" t="s">
-        <v>711</v>
+      <c r="B69" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="D69" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E69">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4857,27 +4949,29 @@
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>149</v>
+        <v>665</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70">
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>69</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>667</v>
+      <c r="B71" s="17" t="s">
+        <v>711</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>149</v>
+        <v>712</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71">
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4885,10 +4979,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>149</v>
@@ -4899,29 +4993,27 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73">
-        <v>90</v>
+        <v>668</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74" s="17" t="s">
-        <v>713</v>
+      <c r="B74" s="4" t="s">
+        <v>669</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="D74" s="7"/>
-      <c r="E74">
-        <v>91</v>
+        <v>670</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4929,27 +5021,29 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>149</v>
+        <v>691</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75">
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>74</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>673</v>
+      <c r="B76" s="17" t="s">
+        <v>713</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>149</v>
+        <v>721</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76">
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -4957,10 +5051,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>149</v>
@@ -4971,29 +5065,27 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="D78" s="7"/>
-      <c r="E78">
-        <v>92</v>
+        <v>693</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>77</v>
       </c>
-      <c r="B79" s="17" t="s">
-        <v>714</v>
+      <c r="B79" s="4" t="s">
+        <v>674</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="D79" s="7"/>
-      <c r="E79">
-        <v>93</v>
+        <v>694</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5001,27 +5093,29 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>149</v>
+        <v>695</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80">
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>79</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>677</v>
+      <c r="B81" s="17" t="s">
+        <v>714</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>149</v>
+        <v>722</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81">
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5029,10 +5123,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>149</v>
@@ -5043,29 +5137,27 @@
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="D83" s="7"/>
-      <c r="E83">
-        <v>94</v>
+        <v>697</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>82</v>
       </c>
-      <c r="B84" s="17" t="s">
-        <v>715</v>
+      <c r="B84" s="4" t="s">
+        <v>678</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="D84" s="7"/>
-      <c r="E84">
-        <v>95</v>
+        <v>698</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5073,27 +5165,29 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>149</v>
+        <v>699</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85">
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>84</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>681</v>
+      <c r="B86" s="17" t="s">
+        <v>715</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>149</v>
+        <v>723</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86">
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5101,10 +5195,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>149</v>
@@ -5115,29 +5209,27 @@
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="D88" s="7"/>
-      <c r="E88">
-        <v>96</v>
+        <v>701</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>87</v>
       </c>
-      <c r="B89" s="17" t="s">
-        <v>716</v>
+      <c r="B89" s="4" t="s">
+        <v>682</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="D89" s="7"/>
-      <c r="E89">
-        <v>97</v>
+        <v>702</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5145,27 +5237,29 @@
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>149</v>
+        <v>703</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>89</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>685</v>
+      <c r="B91" s="17" t="s">
+        <v>716</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>149</v>
+        <v>724</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91">
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5173,10 +5267,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>149</v>
@@ -5187,29 +5281,27 @@
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D93" s="7"/>
-      <c r="E93">
-        <v>98</v>
+        <v>705</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>92</v>
       </c>
-      <c r="B94" s="17" t="s">
-        <v>717</v>
+      <c r="B94" s="4" t="s">
+        <v>686</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="D94" s="7"/>
-      <c r="E94">
-        <v>99</v>
+        <v>706</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5217,27 +5309,29 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>149</v>
+        <v>707</v>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="E95">
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>94</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>689</v>
+      <c r="B96" s="17" t="s">
+        <v>717</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>149</v>
+        <v>725</v>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="E96">
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5245,10 +5339,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>149</v>
@@ -5259,14 +5353,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>718</v>
+        <v>689</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="D98" s="7"/>
-      <c r="E98">
-        <v>86</v>
+        <v>709</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5274,14 +5367,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="D99" s="7"/>
-      <c r="E99">
-        <v>87</v>
+        <v>710</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5289,16 +5381,14 @@
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>47</v>
+        <v>718</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="D100" s="7"/>
       <c r="E100">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5306,16 +5396,14 @@
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>48</v>
+        <v>720</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="D101" s="7"/>
       <c r="E101">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5323,16 +5411,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E102">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5340,29 +5428,33 @@
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>727</v>
+        <v>48</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="D103" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E103">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>102</v>
       </c>
-      <c r="B104" s="17" t="s">
-        <v>758</v>
+      <c r="B104" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="D104" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E104">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5370,14 +5462,14 @@
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>729</v>
+        <v>642</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5385,14 +5477,14 @@
         <v>104</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5400,14 +5492,14 @@
         <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5415,14 +5507,14 @@
         <v>106</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5430,14 +5522,14 @@
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5445,14 +5537,14 @@
         <v>108</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5460,27 +5552,29 @@
         <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>149</v>
+        <v>733</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111">
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>110</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>735</v>
+      <c r="B112" s="17" t="s">
+        <v>764</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>149</v>
+        <v>762</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112">
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5488,10 +5582,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>149</v>
@@ -5502,10 +5596,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>149</v>
@@ -5516,10 +5610,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>149</v>
@@ -5530,10 +5624,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>149</v>
@@ -5544,10 +5638,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>149</v>
@@ -5558,10 +5652,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>149</v>
@@ -5572,10 +5666,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>149</v>
@@ -5586,10 +5680,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>149</v>
@@ -5600,28 +5694,27 @@
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>288</v>
+        <v>742</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D121" s="7"/>
+        <v>752</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>120</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>50</v>
+        <v>743</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>123</v>
+        <v>753</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="E122">
-        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5629,30 +5722,28 @@
         <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E123">
-        <v>75</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>122</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>317</v>
+        <v>123</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="E124">
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5660,14 +5751,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D125" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E125">
-        <v>102</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5675,16 +5768,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="E126">
-        <v>52</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5692,16 +5782,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>53</v>
+        <v>318</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E127">
-        <v>58</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5709,16 +5799,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E128">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5726,16 +5816,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E129">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5743,16 +5833,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E130">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5760,16 +5850,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E131">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5777,16 +5867,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E132">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5794,16 +5884,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E133">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5811,16 +5901,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E134">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5828,16 +5918,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E135">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5845,16 +5935,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E136">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5862,16 +5952,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E137">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5879,16 +5969,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E138">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5896,16 +5986,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>320</v>
+        <v>63</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>321</v>
+        <v>136</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E139">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5913,16 +6003,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E140">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5930,16 +6020,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>66</v>
+        <v>320</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>139</v>
+        <v>321</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E141">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5947,16 +6037,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E142">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5964,16 +6054,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E143">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5981,16 +6071,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E144">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -5998,46 +6088,80 @@
         <v>143</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E145">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>144</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E146">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>145</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E147">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>146</v>
+      </c>
+      <c r="B148" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D146" s="7"/>
-      <c r="E146">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="8">
+      <c r="D148" s="7"/>
+      <c r="E148">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="8">
+        <v>147</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C149" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B147" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D147" s="7"/>
-      <c r="E147">
-        <v>13</v>
+      <c r="D149" s="7"/>
+      <c r="E149">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6220,6 +6344,9 @@
       <c r="C11" t="s">
         <v>656</v>
       </c>
+      <c r="D11" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
@@ -8932,7 +9059,9 @@
       <c r="C3" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E3">
         <v>6</v>
       </c>
@@ -9413,7 +9542,7 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9428,7 +9557,7 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9442,6 +9571,9 @@
         <v>927</v>
       </c>
       <c r="D16" s="7"/>
+      <c r="E16">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
@@ -9455,7 +9587,7 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9470,7 +9602,7 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9502,7 +9634,7 @@
         <v>149</v>
       </c>
       <c r="E20">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9515,9 +9647,11 @@
       <c r="C21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E21">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9534,7 +9668,7 @@
         <v>149</v>
       </c>
       <c r="E22">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9551,7 +9685,7 @@
         <v>149</v>
       </c>
       <c r="E23">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9568,7 +9702,7 @@
         <v>149</v>
       </c>
       <c r="E24">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9585,7 +9719,7 @@
         <v>149</v>
       </c>
       <c r="E25">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9602,7 +9736,7 @@
         <v>149</v>
       </c>
       <c r="E26">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9619,7 +9753,7 @@
         <v>149</v>
       </c>
       <c r="E27">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9636,7 +9770,7 @@
         <v>149</v>
       </c>
       <c r="E28">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9649,9 +9783,11 @@
       <c r="C29" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E29">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9664,9 +9800,11 @@
       <c r="C30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E30">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9679,9 +9817,11 @@
       <c r="C31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E31">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9694,9 +9834,11 @@
       <c r="C32" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E32">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9709,9 +9851,11 @@
       <c r="C33" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E33">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9724,9 +9868,11 @@
       <c r="C34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E34">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9739,9 +9885,11 @@
       <c r="C35" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E35">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9754,9 +9902,11 @@
       <c r="C36" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E36">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9769,9 +9919,11 @@
       <c r="C37" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E37">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9788,7 +9940,7 @@
         <v>149</v>
       </c>
       <c r="E38">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9805,7 +9957,7 @@
         <v>149</v>
       </c>
       <c r="E39">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9822,7 +9974,7 @@
         <v>149</v>
       </c>
       <c r="E40">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9837,7 +9989,7 @@
       </c>
       <c r="D41" s="7"/>
       <c r="E41">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9852,7 +10004,7 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9867,7 +10019,7 @@
       </c>
       <c r="D43" s="7"/>
       <c r="E43">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9882,7 +10034,7 @@
       </c>
       <c r="D44" s="7"/>
       <c r="E44">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9897,7 +10049,7 @@
       </c>
       <c r="D45" s="7"/>
       <c r="E45">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9912,7 +10064,7 @@
       </c>
       <c r="D46" s="7"/>
       <c r="E46">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9927,7 +10079,7 @@
       </c>
       <c r="D47" s="7"/>
       <c r="E47">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9944,7 +10096,7 @@
         <v>149</v>
       </c>
       <c r="E48">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9961,7 +10113,7 @@
         <v>149</v>
       </c>
       <c r="E49">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9978,7 +10130,7 @@
         <v>149</v>
       </c>
       <c r="E50">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -9995,7 +10147,7 @@
         <v>149</v>
       </c>
       <c r="E51">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10012,7 +10164,7 @@
         <v>149</v>
       </c>
       <c r="E52">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10029,7 +10181,7 @@
         <v>149</v>
       </c>
       <c r="E53">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10046,7 +10198,7 @@
         <v>149</v>
       </c>
       <c r="E54">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10063,7 +10215,7 @@
         <v>149</v>
       </c>
       <c r="E55">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10080,7 +10232,7 @@
         <v>149</v>
       </c>
       <c r="E56">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10097,7 +10249,7 @@
         <v>149</v>
       </c>
       <c r="E57">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10114,7 +10266,7 @@
         <v>149</v>
       </c>
       <c r="E58">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10131,7 +10283,7 @@
         <v>149</v>
       </c>
       <c r="E59">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10162,7 +10314,7 @@
         <v>149</v>
       </c>
       <c r="E61">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10177,7 +10329,7 @@
       </c>
       <c r="D62" s="7"/>
       <c r="E62">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10192,7 +10344,7 @@
       </c>
       <c r="D63" s="7"/>
       <c r="E63">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10249,7 +10401,7 @@
       </c>
       <c r="D67" s="7"/>
       <c r="E67">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10264,7 +10416,7 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10321,7 +10473,7 @@
       </c>
       <c r="D72" s="7"/>
       <c r="E72">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10336,7 +10488,7 @@
       </c>
       <c r="D73" s="7"/>
       <c r="E73">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10393,7 +10545,7 @@
       </c>
       <c r="D77" s="7"/>
       <c r="E77">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10408,7 +10560,7 @@
       </c>
       <c r="D78" s="7"/>
       <c r="E78">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10465,7 +10617,7 @@
       </c>
       <c r="D82" s="7"/>
       <c r="E82">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10480,7 +10632,7 @@
       </c>
       <c r="D83" s="7"/>
       <c r="E83">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10537,7 +10689,7 @@
       </c>
       <c r="D87" s="7"/>
       <c r="E87">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10552,7 +10704,7 @@
       </c>
       <c r="D88" s="7"/>
       <c r="E88">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10609,7 +10761,7 @@
       </c>
       <c r="D92" s="7"/>
       <c r="E92">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10624,7 +10776,7 @@
       </c>
       <c r="D93" s="7"/>
       <c r="E93">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10641,7 +10793,7 @@
         <v>149</v>
       </c>
       <c r="E94">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10658,7 +10810,7 @@
         <v>149</v>
       </c>
       <c r="E95">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10675,7 +10827,7 @@
         <v>149</v>
       </c>
       <c r="E96">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10690,7 +10842,7 @@
       </c>
       <c r="D97" s="7"/>
       <c r="E97">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10705,7 +10857,7 @@
       </c>
       <c r="D98" s="7"/>
       <c r="E98">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10720,7 +10872,7 @@
       </c>
       <c r="D99" s="7"/>
       <c r="E99">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10735,7 +10887,7 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10750,7 +10902,7 @@
       </c>
       <c r="D101" s="7"/>
       <c r="E101">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10765,7 +10917,7 @@
       </c>
       <c r="D102" s="7"/>
       <c r="E102">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10780,7 +10932,7 @@
       </c>
       <c r="D103" s="7"/>
       <c r="E103">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10795,7 +10947,7 @@
       </c>
       <c r="D104" s="7"/>
       <c r="E104">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10967,7 +11119,7 @@
         <v>149</v>
       </c>
       <c r="E116">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -10984,7 +11136,7 @@
         <v>149</v>
       </c>
       <c r="E117">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11001,7 +11153,7 @@
         <v>149</v>
       </c>
       <c r="E118">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11014,9 +11166,11 @@
       <c r="C119" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D119" s="7"/>
+      <c r="D119" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E119">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11033,7 +11187,7 @@
         <v>149</v>
       </c>
       <c r="E120">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11050,7 +11204,7 @@
         <v>149</v>
       </c>
       <c r="E121">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11067,7 +11221,7 @@
         <v>149</v>
       </c>
       <c r="E122">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11084,7 +11238,7 @@
         <v>149</v>
       </c>
       <c r="E123">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11101,7 +11255,7 @@
         <v>149</v>
       </c>
       <c r="E124">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11118,7 +11272,7 @@
         <v>149</v>
       </c>
       <c r="E125">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11135,7 +11289,7 @@
         <v>149</v>
       </c>
       <c r="E126">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11152,7 +11306,7 @@
         <v>149</v>
       </c>
       <c r="E127">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11169,7 +11323,7 @@
         <v>149</v>
       </c>
       <c r="E128">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11186,7 +11340,7 @@
         <v>149</v>
       </c>
       <c r="E129">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11203,7 +11357,7 @@
         <v>149</v>
       </c>
       <c r="E130">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11220,7 +11374,7 @@
         <v>149</v>
       </c>
       <c r="E131">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11237,7 +11391,7 @@
         <v>149</v>
       </c>
       <c r="E132">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11254,7 +11408,7 @@
         <v>149</v>
       </c>
       <c r="E133">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11271,7 +11425,7 @@
         <v>149</v>
       </c>
       <c r="E134">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11288,7 +11442,7 @@
         <v>149</v>
       </c>
       <c r="E135">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11305,7 +11459,7 @@
         <v>149</v>
       </c>
       <c r="E136">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11322,7 +11476,7 @@
         <v>149</v>
       </c>
       <c r="E137">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11339,7 +11493,7 @@
         <v>149</v>
       </c>
       <c r="E138">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11356,7 +11510,7 @@
         <v>149</v>
       </c>
       <c r="E139">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11371,7 +11525,7 @@
       </c>
       <c r="D140" s="7"/>
       <c r="E140">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11386,7 +11540,7 @@
       </c>
       <c r="D141" s="7"/>
       <c r="E141">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -11401,7 +11555,7 @@
       </c>
       <c r="D142" s="7"/>
       <c r="E142">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -11726,7 +11880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D11711-B3DD-4521-85ED-C5C33898C2FE}">
   <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11900,6 +12054,9 @@
       </c>
       <c r="C11" t="s">
         <v>656</v>
+      </c>
+      <c r="D11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16158,9 +16315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9078C510-49E8-4816-91AD-BE458B8B69FF}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16827,7 +16982,9 @@
       <c r="C3" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E3">
         <v>30</v>
       </c>
@@ -16939,7 +17096,9 @@
       <c r="C10" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E10">
         <v>10</v>
       </c>
@@ -16954,7 +17113,9 @@
       <c r="C11" s="13" t="s">
         <v>837</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
@@ -17130,7 +17291,9 @@
       <c r="C22" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E22">
         <v>1</v>
       </c>
@@ -17191,7 +17354,9 @@
       <c r="C26" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E26">
         <v>24</v>
       </c>
@@ -17206,7 +17371,9 @@
       <c r="C27" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E27">
         <v>25</v>
       </c>
@@ -17221,7 +17388,9 @@
       <c r="C28" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
@@ -17233,7 +17402,9 @@
       <c r="C29" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E29">
         <v>38</v>
       </c>
@@ -17263,7 +17434,9 @@
       <c r="C31" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E31">
         <v>39</v>
       </c>
@@ -17278,7 +17451,9 @@
       <c r="C32" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E32">
         <v>41</v>
       </c>
@@ -17325,7 +17500,9 @@
       <c r="C35" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E35">
         <v>28</v>
       </c>
@@ -17340,7 +17517,9 @@
       <c r="C36" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E36">
         <v>31</v>
       </c>
@@ -17355,7 +17534,9 @@
       <c r="C37" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -17367,7 +17548,9 @@
       <c r="C38" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E38">
         <v>42</v>
       </c>
@@ -17382,7 +17565,9 @@
       <c r="C39" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E39">
         <v>29</v>
       </c>
@@ -17397,7 +17582,9 @@
       <c r="C40" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E40">
         <v>26</v>
       </c>
@@ -17441,7 +17628,9 @@
       <c r="C43" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D43" s="7"/>
+      <c r="D43" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E43">
         <v>40</v>
       </c>
@@ -17519,7 +17708,9 @@
       <c r="C48" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="7"/>
+      <c r="D48" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E48">
         <v>43</v>
       </c>
@@ -17566,7 +17757,9 @@
       <c r="C51" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D51" s="7"/>
+      <c r="D51" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E51">
         <v>27</v>
       </c>
@@ -17581,7 +17774,9 @@
       <c r="C52" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E52">
         <v>32</v>
       </c>
@@ -17596,7 +17791,9 @@
       <c r="C53" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E53">
         <v>44</v>
       </c>
@@ -17611,7 +17808,9 @@
       <c r="C54" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E54">
         <v>45</v>
       </c>
@@ -17626,7 +17825,9 @@
       <c r="C55" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D55" s="7"/>
+      <c r="D55" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="E55">
         <v>46</v>
       </c>

--- a/Customized Program Main Dataframe Structure.xlsx
+++ b/Customized Program Main Dataframe Structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19250\Documents\GitHub\LoL-DIY-Programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AE6F39-E1D4-4D56-A3CF-2C0F427790FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EBC87F-5074-4463-8423-B56DAF23AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B2D932DB-2183-440F-AF66-43F3E8354BB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="6" xr2:uid="{B2D932DB-2183-440F-AF66-43F3E8354BB0}"/>
   </bookViews>
   <sheets>
     <sheet name="05 - mastery_header" sheetId="3" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="940">
   <si>
     <t>gameCreationDate</t>
   </si>
@@ -2811,12 +2811,6 @@
     <t>拥有状态</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>价格</t>
-  </si>
-  <si>
     <t>purchaseData</t>
   </si>
   <si>
@@ -3026,6 +3020,22 @@
   </si>
   <si>
     <t>playerId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格（蓝色精粹）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_RP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格（点券）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3286,9 +3296,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3326,7 +3336,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3432,7 +3442,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3574,7 +3584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3584,7 +3594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF82C05-E00D-47FE-907F-7796571974D3}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3730,10 +3740,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>933</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>935</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -3742,10 +3752,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>934</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>936</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -3786,7 +3796,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>656</v>
@@ -3992,10 +4002,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>149</v>
@@ -4006,10 +4016,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>149</v>
@@ -4023,7 +4033,7 @@
         <v>293</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>149</v>
@@ -4034,10 +4044,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>920</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>922</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>149</v>
@@ -4051,7 +4061,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="7" t="s">
@@ -4066,7 +4076,7 @@
         <v>292</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>149</v>
@@ -4077,10 +4087,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>149</v>
@@ -4142,10 +4152,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>908</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>910</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>149</v>
@@ -4189,10 +4199,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23">
@@ -4252,7 +4262,7 @@
         <v>324</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D27" s="7"/>
     </row>
@@ -6437,10 +6447,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>919</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>921</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>923</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -6578,10 +6588,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>909</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>911</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -9365,10 +9375,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>149</v>
@@ -9379,10 +9389,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>149</v>
@@ -9410,10 +9420,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>919</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>921</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>923</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>149</v>
@@ -9427,7 +9437,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="7" t="s">
@@ -9518,10 +9528,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>907</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>909</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>911</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>149</v>
@@ -9565,10 +9575,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16">
@@ -12148,10 +12158,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>919</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>921</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -12277,10 +12287,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>909</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -14289,10 +14299,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>919</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>921</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>923</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -14430,10 +14440,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>909</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>911</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -16313,9 +16323,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9078C510-49E8-4816-91AD-BE458B8B69FF}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16384,7 +16394,7 @@
         <v>856</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16392,7 +16402,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C5" t="s">
         <v>857</v>
@@ -16494,7 +16504,7 @@
         <v>149</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16511,7 +16521,7 @@
         <v>149</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16525,7 +16535,7 @@
         <v>871</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16533,10 +16543,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>872</v>
+        <v>936</v>
       </c>
       <c r="C14" t="s">
-        <v>873</v>
+        <v>937</v>
       </c>
       <c r="E14">
         <v>11</v>
@@ -16547,13 +16557,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>874</v>
+        <v>938</v>
       </c>
       <c r="C15" t="s">
-        <v>875</v>
+        <v>939</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16561,13 +16571,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C16" t="s">
-        <v>877</v>
-      </c>
-      <c r="D16" t="s">
-        <v>149</v>
+        <v>873</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -16578,13 +16585,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C17" t="s">
-        <v>879</v>
+        <v>875</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16592,13 +16602,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C18" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16606,13 +16616,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C19" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16620,16 +16630,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C20" t="s">
-        <v>885</v>
-      </c>
-      <c r="D20" t="s">
-        <v>149</v>
+        <v>881</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -16637,16 +16644,33 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="C21" t="s">
+        <v>883</v>
+      </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>792</v>
       </c>
-      <c r="C21" t="s">
-        <v>886</v>
-      </c>
-      <c r="D21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21">
-        <v>18</v>
+      <c r="C22" t="s">
+        <v>884</v>
+      </c>
+      <c r="D22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -16692,10 +16716,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -16706,10 +16730,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D3" t="s">
         <v>149</v>
@@ -16754,7 +16778,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D6" t="s">
         <v>149</v>
@@ -16765,7 +16789,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D7" t="s">
         <v>149</v>
@@ -16796,7 +16820,7 @@
         <v>870</v>
       </c>
       <c r="C9" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -16807,10 +16831,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C10" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -16821,10 +16845,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D11" t="s">
         <v>149</v>
@@ -16838,10 +16862,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C12" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D12" t="s">
         <v>149</v>
@@ -16855,10 +16879,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C13" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D13" t="s">
         <v>149</v>
@@ -16875,7 +16899,7 @@
         <v>257</v>
       </c>
       <c r="C14" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D14" t="s">
         <v>149</v>
@@ -16889,10 +16913,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D15" t="s">
         <v>149</v>
@@ -16906,10 +16930,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C16" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E16">
         <v>0</v>
